--- a/raw_data/20200818_saline/20200818_Sensor1_Test_20.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_20.xlsx
@@ -1,688 +1,1104 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0102A667-3E94-4BD2-AEDB-15A705DEAD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>17287.517210</v>
+        <v>17287.517210000002</v>
       </c>
       <c r="B2" s="1">
-        <v>4.802088</v>
+        <v>4.8020880000000004</v>
       </c>
       <c r="C2" s="1">
-        <v>895.105000</v>
+        <v>895.10500000000002</v>
       </c>
       <c r="D2" s="1">
-        <v>-199.556000</v>
+        <v>-199.55600000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>17297.614301</v>
+        <v>17297.614301000001</v>
       </c>
       <c r="G2" s="1">
-        <v>4.804893</v>
+        <v>4.8048929999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>912.898000</v>
+        <v>912.89800000000002</v>
       </c>
       <c r="I2" s="1">
-        <v>-168.366000</v>
+        <v>-168.36600000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>17307.738608</v>
       </c>
       <c r="L2" s="1">
-        <v>4.807705</v>
+        <v>4.8077050000000003</v>
       </c>
       <c r="M2" s="1">
-        <v>934.974000</v>
+        <v>934.97400000000005</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.109000</v>
+        <v>-119.10899999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>17318.221554</v>
       </c>
       <c r="Q2" s="1">
-        <v>4.810617</v>
+        <v>4.8106169999999997</v>
       </c>
       <c r="R2" s="1">
-        <v>941.514000</v>
+        <v>941.51400000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-102.957000</v>
+        <v>-102.95699999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>17329.168260</v>
+        <v>17329.168259999999</v>
       </c>
       <c r="V2" s="1">
-        <v>4.813658</v>
+        <v>4.8136580000000002</v>
       </c>
       <c r="W2" s="1">
-        <v>947.853000</v>
+        <v>947.85299999999995</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.022100</v>
+        <v>-88.022099999999995</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>17339.580777</v>
+        <v>17339.580776999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>4.816550</v>
+        <v>4.8165500000000003</v>
       </c>
       <c r="AB2" s="1">
-        <v>954.715000</v>
+        <v>954.71500000000003</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.666500</v>
+        <v>-76.666499999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>17350.140134</v>
+        <v>17350.140134000001</v>
       </c>
       <c r="AF2" s="1">
         <v>4.819483</v>
       </c>
       <c r="AG2" s="1">
-        <v>959.317000</v>
+        <v>959.31700000000001</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.770200</v>
+        <v>-74.770200000000003</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>17360.629498</v>
+        <v>17360.629497999998</v>
       </c>
       <c r="AK2" s="1">
-        <v>4.822397</v>
+        <v>4.8223969999999996</v>
       </c>
       <c r="AL2" s="1">
-        <v>966.467000</v>
+        <v>966.46699999999998</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.733800</v>
+        <v>-79.733800000000002</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>17371.170507</v>
+        <v>17371.170506999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>4.825325</v>
+        <v>4.8253250000000003</v>
       </c>
       <c r="AQ2" s="1">
-        <v>974.546000</v>
+        <v>974.54600000000005</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.604900</v>
+        <v>-91.604900000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>17382.453998</v>
+        <v>17382.453998000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>4.828459</v>
+        <v>4.8284589999999996</v>
       </c>
       <c r="AV2" s="1">
-        <v>984.464000</v>
+        <v>984.46400000000006</v>
       </c>
       <c r="AW2" s="1">
-        <v>-109.608000</v>
+        <v>-109.608</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>17393.595604</v>
+        <v>17393.595603999998</v>
       </c>
       <c r="AZ2" s="1">
-        <v>4.831554</v>
+        <v>4.8315539999999997</v>
       </c>
       <c r="BA2" s="1">
-        <v>992.785000</v>
+        <v>992.78499999999997</v>
       </c>
       <c r="BB2" s="1">
-        <v>-125.491000</v>
+        <v>-125.491</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>17404.570575</v>
+        <v>17404.570575000002</v>
       </c>
       <c r="BE2" s="1">
-        <v>4.834603</v>
+        <v>4.8346030000000004</v>
       </c>
       <c r="BF2" s="1">
-        <v>1031.560000</v>
+        <v>1031.56</v>
       </c>
       <c r="BG2" s="1">
-        <v>-198.411000</v>
+        <v>-198.411</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>17415.613010</v>
+        <v>17415.613010000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>4.837670</v>
+        <v>4.8376700000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1098.590000</v>
+        <v>1098.5899999999999</v>
       </c>
       <c r="BL2" s="1">
-        <v>-316.872000</v>
+        <v>-316.87200000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>17427.133586</v>
       </c>
       <c r="BO2" s="1">
-        <v>4.840870</v>
+        <v>4.8408699999999998</v>
       </c>
       <c r="BP2" s="1">
-        <v>1207.550000</v>
+        <v>1207.55</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-503.876000</v>
+        <v>-503.87599999999998</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>17437.773267</v>
@@ -691,255 +1107,255 @@
         <v>4.843826</v>
       </c>
       <c r="BU2" s="1">
-        <v>1330.340000</v>
+        <v>1330.34</v>
       </c>
       <c r="BV2" s="1">
-        <v>-709.748000</v>
+        <v>-709.74800000000005</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>17448.200167</v>
+        <v>17448.200166999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>4.846722</v>
+        <v>4.8467219999999998</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1468.020000</v>
+        <v>1468.02</v>
       </c>
       <c r="CA2" s="1">
-        <v>-928.942000</v>
+        <v>-928.94200000000001</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>17459.163240</v>
+        <v>17459.163240000002</v>
       </c>
       <c r="CD2" s="1">
-        <v>4.849768</v>
+        <v>4.8497680000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1831.560000</v>
+        <v>1831.56</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1451.130000</v>
+        <v>-1451.13</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>17287.908057</v>
+        <v>17287.908057000001</v>
       </c>
       <c r="B3" s="1">
-        <v>4.802197</v>
+        <v>4.8021969999999996</v>
       </c>
       <c r="C3" s="1">
-        <v>895.157000</v>
+        <v>895.15700000000004</v>
       </c>
       <c r="D3" s="1">
-        <v>-199.549000</v>
+        <v>-199.54900000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>17298.027437</v>
+        <v>17298.027437000001</v>
       </c>
       <c r="G3" s="1">
-        <v>4.805008</v>
+        <v>4.8050079999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>912.535000</v>
+        <v>912.53499999999997</v>
       </c>
       <c r="I3" s="1">
-        <v>-168.397000</v>
+        <v>-168.39699999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>17308.157230</v>
+        <v>17308.157230000001</v>
       </c>
       <c r="L3" s="1">
-        <v>4.807821</v>
+        <v>4.8078209999999997</v>
       </c>
       <c r="M3" s="1">
-        <v>935.073000</v>
+        <v>935.07299999999998</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.230000</v>
+        <v>-119.23</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>17318.632240</v>
+        <v>17318.632239999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>4.810731</v>
+        <v>4.8107309999999996</v>
       </c>
       <c r="R3" s="1">
-        <v>941.516000</v>
+        <v>941.51599999999996</v>
       </c>
       <c r="S3" s="1">
-        <v>-102.909000</v>
+        <v>-102.90900000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>17329.512518</v>
       </c>
       <c r="V3" s="1">
-        <v>4.813753</v>
+        <v>4.8137530000000002</v>
       </c>
       <c r="W3" s="1">
-        <v>947.796000</v>
+        <v>947.79600000000005</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.005700</v>
+        <v>-88.005700000000004</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>17339.943846</v>
+        <v>17339.943845999998</v>
       </c>
       <c r="AA3" s="1">
-        <v>4.816651</v>
+        <v>4.8166510000000002</v>
       </c>
       <c r="AB3" s="1">
-        <v>954.490000</v>
+        <v>954.49</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.760700</v>
+        <v>-76.7607</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>17350.519046</v>
+        <v>17350.519046000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>4.819589</v>
+        <v>4.8195889999999997</v>
       </c>
       <c r="AG3" s="1">
-        <v>959.296000</v>
+        <v>959.29600000000005</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.687600</v>
+        <v>-74.687600000000003</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>17361.335800</v>
+        <v>17361.335800000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>4.822593</v>
+        <v>4.8225930000000004</v>
       </c>
       <c r="AL3" s="1">
-        <v>966.470000</v>
+        <v>966.47</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.746600</v>
+        <v>-79.746600000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>17371.926914</v>
       </c>
       <c r="AP3" s="1">
-        <v>4.825535</v>
+        <v>4.8255350000000004</v>
       </c>
       <c r="AQ3" s="1">
-        <v>974.541000</v>
+        <v>974.54100000000005</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.632700</v>
+        <v>-91.6327</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>17382.848817</v>
+        <v>17382.848816999998</v>
       </c>
       <c r="AU3" s="1">
-        <v>4.828569</v>
+        <v>4.8285689999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>984.477000</v>
+        <v>984.47699999999998</v>
       </c>
       <c r="AW3" s="1">
-        <v>-109.618000</v>
+        <v>-109.61799999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>17393.981982</v>
+        <v>17393.981982000001</v>
       </c>
       <c r="AZ3" s="1">
-        <v>4.831662</v>
+        <v>4.8316619999999997</v>
       </c>
       <c r="BA3" s="1">
-        <v>992.764000</v>
+        <v>992.76400000000001</v>
       </c>
       <c r="BB3" s="1">
-        <v>-125.478000</v>
+        <v>-125.47799999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>17404.934143</v>
+        <v>17404.934142999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>4.834704</v>
+        <v>4.8347040000000003</v>
       </c>
       <c r="BF3" s="1">
-        <v>1031.580000</v>
+        <v>1031.58</v>
       </c>
       <c r="BG3" s="1">
-        <v>-198.411000</v>
+        <v>-198.411</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>17416.319311</v>
+        <v>17416.319310999999</v>
       </c>
       <c r="BJ3" s="1">
         <v>4.837866</v>
       </c>
       <c r="BK3" s="1">
-        <v>1098.540000</v>
+        <v>1098.54</v>
       </c>
       <c r="BL3" s="1">
-        <v>-316.847000</v>
+        <v>-316.84699999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>17427.581335</v>
+        <v>17427.581334999999</v>
       </c>
       <c r="BO3" s="1">
-        <v>4.840995</v>
+        <v>4.8409950000000004</v>
       </c>
       <c r="BP3" s="1">
-        <v>1207.540000</v>
+        <v>1207.54</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-503.900000</v>
+        <v>-503.9</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>17437.935995</v>
@@ -948,28 +1364,28 @@
         <v>4.843871</v>
       </c>
       <c r="BU3" s="1">
-        <v>1330.240000</v>
+        <v>1330.24</v>
       </c>
       <c r="BV3" s="1">
-        <v>-709.848000</v>
+        <v>-709.84799999999996</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>17448.670374</v>
+        <v>17448.670374000001</v>
       </c>
       <c r="BY3" s="1">
-        <v>4.846853</v>
+        <v>4.8468530000000003</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1468.120000</v>
+        <v>1468.12</v>
       </c>
       <c r="CA3" s="1">
-        <v>-928.910000</v>
+        <v>-928.91</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>17459.757942</v>
@@ -978,392 +1394,392 @@
         <v>4.849933</v>
       </c>
       <c r="CE3" s="1">
-        <v>1831.120000</v>
+        <v>1831.12</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1449.530000</v>
+        <v>-1449.53</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>17288.335113</v>
+        <v>17288.335113000001</v>
       </c>
       <c r="B4" s="1">
-        <v>4.802315</v>
+        <v>4.8023150000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>895.110000</v>
+        <v>895.11</v>
       </c>
       <c r="D4" s="1">
-        <v>-199.519000</v>
+        <v>-199.51900000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>17298.336443</v>
       </c>
       <c r="G4" s="1">
-        <v>4.805093</v>
+        <v>4.8050930000000003</v>
       </c>
       <c r="H4" s="1">
-        <v>912.693000</v>
+        <v>912.69299999999998</v>
       </c>
       <c r="I4" s="1">
-        <v>-168.710000</v>
+        <v>-168.71</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>17308.504431</v>
+        <v>17308.504431000001</v>
       </c>
       <c r="L4" s="1">
-        <v>4.807918</v>
+        <v>4.8079179999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>935.116000</v>
+        <v>935.11599999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.323000</v>
+        <v>-119.32299999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>17318.982443</v>
+        <v>17318.982443000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>4.810828</v>
+        <v>4.8108279999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>941.518000</v>
+        <v>941.51800000000003</v>
       </c>
       <c r="S4" s="1">
-        <v>-102.925000</v>
+        <v>-102.925</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>17329.850755</v>
+        <v>17329.850754999999</v>
       </c>
       <c r="V4" s="1">
         <v>4.813847</v>
       </c>
       <c r="W4" s="1">
-        <v>947.813000</v>
+        <v>947.81299999999999</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.040400</v>
+        <v>-88.040400000000005</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>17340.289556</v>
       </c>
       <c r="AA4" s="1">
-        <v>4.816747</v>
+        <v>4.8167470000000003</v>
       </c>
       <c r="AB4" s="1">
-        <v>954.672000</v>
+        <v>954.67200000000003</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.675100</v>
+        <v>-76.6751</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>17351.206006</v>
       </c>
       <c r="AF4" s="1">
-        <v>4.819779</v>
+        <v>4.8197789999999996</v>
       </c>
       <c r="AG4" s="1">
-        <v>959.294000</v>
+        <v>959.29399999999998</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.697500</v>
+        <v>-74.697500000000005</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>17361.687097</v>
+        <v>17361.687097000002</v>
       </c>
       <c r="AK4" s="1">
-        <v>4.822691</v>
+        <v>4.8226909999999998</v>
       </c>
       <c r="AL4" s="1">
-        <v>966.459000</v>
+        <v>966.45899999999995</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.728000</v>
+        <v>-79.727999999999994</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>17372.287963</v>
+        <v>17372.287962999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>4.825636</v>
+        <v>4.8256360000000003</v>
       </c>
       <c r="AQ4" s="1">
-        <v>974.574000</v>
+        <v>974.57399999999996</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.628500</v>
+        <v>-91.628500000000003</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>17383.211355</v>
+        <v>17383.211354999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>4.828670</v>
+        <v>4.8286699999999998</v>
       </c>
       <c r="AV4" s="1">
-        <v>984.474000</v>
+        <v>984.47400000000005</v>
       </c>
       <c r="AW4" s="1">
-        <v>-109.598000</v>
+        <v>-109.598</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>17394.647165</v>
+        <v>17394.647164999998</v>
       </c>
       <c r="AZ4" s="1">
-        <v>4.831846</v>
+        <v>4.8318459999999996</v>
       </c>
       <c r="BA4" s="1">
-        <v>992.760000</v>
+        <v>992.76</v>
       </c>
       <c r="BB4" s="1">
-        <v>-125.473000</v>
+        <v>-125.473</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>17405.593855</v>
+        <v>17405.593854999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>4.834887</v>
+        <v>4.8348870000000002</v>
       </c>
       <c r="BF4" s="1">
-        <v>1031.570000</v>
+        <v>1031.57</v>
       </c>
       <c r="BG4" s="1">
-        <v>-198.390000</v>
+        <v>-198.39</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>17416.799439</v>
+        <v>17416.799438999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>4.838000</v>
+        <v>4.8380000000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1098.610000</v>
+        <v>1098.6099999999999</v>
       </c>
       <c r="BL4" s="1">
-        <v>-316.847000</v>
+        <v>-316.84699999999998</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>17427.968885</v>
+        <v>17427.968884999998</v>
       </c>
       <c r="BO4" s="1">
-        <v>4.841102</v>
+        <v>4.8411020000000002</v>
       </c>
       <c r="BP4" s="1">
-        <v>1207.550000</v>
+        <v>1207.55</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-503.888000</v>
+        <v>-503.88799999999998</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>17438.346643</v>
+        <v>17438.346643000001</v>
       </c>
       <c r="BT4" s="1">
         <v>4.843985</v>
       </c>
       <c r="BU4" s="1">
-        <v>1330.250000</v>
+        <v>1330.25</v>
       </c>
       <c r="BV4" s="1">
-        <v>-709.751000</v>
+        <v>-709.75099999999998</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>17449.093461</v>
       </c>
       <c r="BY4" s="1">
-        <v>4.846970</v>
+        <v>4.8469699999999998</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1468.140000</v>
+        <v>1468.14</v>
       </c>
       <c r="CA4" s="1">
-        <v>-928.924000</v>
+        <v>-928.92399999999998</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>17460.336278</v>
+        <v>17460.336277999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>4.850093</v>
+        <v>4.8500930000000002</v>
       </c>
       <c r="CE4" s="1">
-        <v>1831.750000</v>
+        <v>1831.75</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1450.370000</v>
+        <v>-1450.37</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>17288.616872</v>
+        <v>17288.616871999999</v>
       </c>
       <c r="B5" s="1">
-        <v>4.802394</v>
+        <v>4.8023939999999996</v>
       </c>
       <c r="C5" s="1">
-        <v>895.220000</v>
+        <v>895.22</v>
       </c>
       <c r="D5" s="1">
-        <v>-199.329000</v>
+        <v>-199.32900000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>17298.680667</v>
+        <v>17298.680667000001</v>
       </c>
       <c r="G5" s="1">
-        <v>4.805189</v>
+        <v>4.8051890000000004</v>
       </c>
       <c r="H5" s="1">
-        <v>912.506000</v>
+        <v>912.50599999999997</v>
       </c>
       <c r="I5" s="1">
-        <v>-168.817000</v>
+        <v>-168.81700000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>17308.848157</v>
       </c>
       <c r="L5" s="1">
-        <v>4.808013</v>
+        <v>4.8080129999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>934.986000</v>
+        <v>934.98599999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.239000</v>
+        <v>-119.239</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>17319.330112</v>
       </c>
       <c r="Q5" s="1">
-        <v>4.810925</v>
+        <v>4.8109250000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>941.557000</v>
+        <v>941.55700000000002</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.959000</v>
+        <v>-102.959</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>17330.543202</v>
+        <v>17330.543202000001</v>
       </c>
       <c r="V5" s="1">
-        <v>4.814040</v>
+        <v>4.8140400000000003</v>
       </c>
       <c r="W5" s="1">
-        <v>947.844000</v>
+        <v>947.84400000000005</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.037100</v>
+        <v>-88.037099999999995</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>17340.987924</v>
+        <v>17340.987924000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>4.816941</v>
+        <v>4.8169409999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>954.713000</v>
+        <v>954.71299999999997</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.714600</v>
+        <v>-76.714600000000004</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>17351.548246</v>
+        <v>17351.548245999998</v>
       </c>
       <c r="AF5" s="1">
-        <v>4.819875</v>
+        <v>4.8198749999999997</v>
       </c>
       <c r="AG5" s="1">
-        <v>959.325000</v>
+        <v>959.32500000000005</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.712800</v>
+        <v>-74.712800000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>17362.035161</v>
       </c>
       <c r="AK5" s="1">
-        <v>4.822788</v>
+        <v>4.8227880000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>966.451000</v>
+        <v>966.45100000000002</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.726100</v>
+        <v>-79.726100000000002</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>17372.649049</v>
@@ -1372,210 +1788,210 @@
         <v>4.825736</v>
       </c>
       <c r="AQ5" s="1">
-        <v>974.562000</v>
+        <v>974.56200000000001</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.624500</v>
+        <v>-91.624499999999998</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>17383.880490</v>
+        <v>17383.88049</v>
       </c>
       <c r="AU5" s="1">
         <v>4.828856</v>
       </c>
       <c r="AV5" s="1">
-        <v>984.470000</v>
+        <v>984.47</v>
       </c>
       <c r="AW5" s="1">
-        <v>-109.606000</v>
+        <v>-109.60599999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>17395.058331</v>
       </c>
       <c r="AZ5" s="1">
-        <v>4.831961</v>
+        <v>4.8319609999999997</v>
       </c>
       <c r="BA5" s="1">
-        <v>992.742000</v>
+        <v>992.74199999999996</v>
       </c>
       <c r="BB5" s="1">
-        <v>-125.488000</v>
+        <v>-125.488</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>17406.038733</v>
+        <v>17406.038733000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>4.835011</v>
+        <v>4.8350109999999997</v>
       </c>
       <c r="BF5" s="1">
-        <v>1031.580000</v>
+        <v>1031.58</v>
       </c>
       <c r="BG5" s="1">
-        <v>-198.389000</v>
+        <v>-198.38900000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>17417.174414</v>
+        <v>17417.174414000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>4.838104</v>
+        <v>4.8381040000000004</v>
       </c>
       <c r="BK5" s="1">
-        <v>1098.550000</v>
+        <v>1098.55</v>
       </c>
       <c r="BL5" s="1">
-        <v>-316.843000</v>
+        <v>-316.84300000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>17428.366144</v>
       </c>
       <c r="BO5" s="1">
-        <v>4.841213</v>
+        <v>4.8412129999999998</v>
       </c>
       <c r="BP5" s="1">
-        <v>1207.530000</v>
+        <v>1207.53</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-503.857000</v>
+        <v>-503.85700000000003</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>17438.780642</v>
+        <v>17438.780642000002</v>
       </c>
       <c r="BT5" s="1">
         <v>4.844106</v>
       </c>
       <c r="BU5" s="1">
-        <v>1330.180000</v>
+        <v>1330.18</v>
       </c>
       <c r="BV5" s="1">
-        <v>-709.830000</v>
+        <v>-709.83</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>17449.523028</v>
       </c>
       <c r="BY5" s="1">
-        <v>4.847090</v>
+        <v>4.8470899999999997</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1468.150000</v>
+        <v>1468.15</v>
       </c>
       <c r="CA5" s="1">
-        <v>-928.870000</v>
+        <v>-928.87</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>17461.351590</v>
+        <v>17461.351589999998</v>
       </c>
       <c r="CD5" s="1">
-        <v>4.850375</v>
+        <v>4.8503749999999997</v>
       </c>
       <c r="CE5" s="1">
-        <v>1830.880000</v>
+        <v>1830.88</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1451.350000</v>
+        <v>-1451.35</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>17288.960194</v>
+        <v>17288.960193999999</v>
       </c>
       <c r="B6" s="1">
-        <v>4.802489</v>
+        <v>4.8024889999999996</v>
       </c>
       <c r="C6" s="1">
-        <v>895.267000</v>
+        <v>895.26700000000005</v>
       </c>
       <c r="D6" s="1">
-        <v>-199.732000</v>
+        <v>-199.732</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>17299.029387</v>
+        <v>17299.029386999999</v>
       </c>
       <c r="G6" s="1">
-        <v>4.805286</v>
+        <v>4.8052859999999997</v>
       </c>
       <c r="H6" s="1">
-        <v>912.918000</v>
+        <v>912.91800000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-168.586000</v>
+        <v>-168.58600000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>17309.195395</v>
+        <v>17309.195394999999</v>
       </c>
       <c r="L6" s="1">
-        <v>4.808110</v>
+        <v>4.8081100000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>934.952000</v>
+        <v>934.952</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.182000</v>
+        <v>-119.182</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>17320.027983</v>
       </c>
       <c r="Q6" s="1">
-        <v>4.811119</v>
+        <v>4.8111189999999997</v>
       </c>
       <c r="R6" s="1">
-        <v>941.527000</v>
+        <v>941.52700000000004</v>
       </c>
       <c r="S6" s="1">
-        <v>-102.951000</v>
+        <v>-102.95099999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>17330.890867</v>
+        <v>17330.890866999998</v>
       </c>
       <c r="V6" s="1">
-        <v>4.814136</v>
+        <v>4.8141360000000004</v>
       </c>
       <c r="W6" s="1">
-        <v>947.741000</v>
+        <v>947.74099999999999</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.021100</v>
+        <v>-88.021100000000004</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>17341.334627</v>
@@ -1584,405 +2000,405 @@
         <v>4.817037</v>
       </c>
       <c r="AB6" s="1">
-        <v>954.680000</v>
+        <v>954.68</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.737000</v>
+        <v>-76.736999999999995</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>17351.892470</v>
+        <v>17351.892469999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>4.819970</v>
+        <v>4.8199699999999996</v>
       </c>
       <c r="AG6" s="1">
-        <v>959.322000</v>
+        <v>959.322</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.691300</v>
+        <v>-74.691299999999998</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>17362.690376</v>
+        <v>17362.690375999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>4.822970</v>
+        <v>4.8229699999999998</v>
       </c>
       <c r="AL6" s="1">
-        <v>966.457000</v>
+        <v>966.45699999999999</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.735400</v>
+        <v>-79.735399999999998</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>17373.313192</v>
+        <v>17373.313192000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>4.825920</v>
+        <v>4.82592</v>
       </c>
       <c r="AQ6" s="1">
-        <v>974.563000</v>
+        <v>974.56299999999999</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.630000</v>
+        <v>-91.63</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>17384.340746</v>
+        <v>17384.340746000002</v>
       </c>
       <c r="AU6" s="1">
-        <v>4.828984</v>
+        <v>4.8289840000000002</v>
       </c>
       <c r="AV6" s="1">
-        <v>984.469000</v>
+        <v>984.46900000000005</v>
       </c>
       <c r="AW6" s="1">
-        <v>-109.611000</v>
+        <v>-109.611</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>17395.444187</v>
+        <v>17395.444187000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>4.832068</v>
+        <v>4.8320679999999996</v>
       </c>
       <c r="BA6" s="1">
-        <v>992.776000</v>
+        <v>992.77599999999995</v>
       </c>
       <c r="BB6" s="1">
-        <v>-125.472000</v>
+        <v>-125.47199999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>17406.403293</v>
+        <v>17406.403292999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>4.835112</v>
+        <v>4.8351119999999996</v>
       </c>
       <c r="BF6" s="1">
-        <v>1031.580000</v>
+        <v>1031.58</v>
       </c>
       <c r="BG6" s="1">
-        <v>-198.402000</v>
+        <v>-198.40199999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>17417.555838</v>
       </c>
       <c r="BJ6" s="1">
-        <v>4.838210</v>
+        <v>4.8382100000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1098.540000</v>
+        <v>1098.54</v>
       </c>
       <c r="BL6" s="1">
-        <v>-316.861000</v>
+        <v>-316.86099999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>17428.787248</v>
+        <v>17428.787248000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>4.841330</v>
+        <v>4.8413300000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1207.490000</v>
+        <v>1207.49</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-503.889000</v>
+        <v>-503.88900000000001</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>17439.215670</v>
+        <v>17439.215670000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>4.844227</v>
+        <v>4.8442270000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1330.160000</v>
+        <v>1330.16</v>
       </c>
       <c r="BV6" s="1">
-        <v>-709.752000</v>
+        <v>-709.75199999999995</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>17449.939635</v>
+        <v>17449.939634999999</v>
       </c>
       <c r="BY6" s="1">
-        <v>4.847205</v>
+        <v>4.8472049999999998</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1468.080000</v>
+        <v>1468.08</v>
       </c>
       <c r="CA6" s="1">
-        <v>-928.883000</v>
+        <v>-928.88300000000004</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>17461.884323</v>
+        <v>17461.884322999998</v>
       </c>
       <c r="CD6" s="1">
-        <v>4.850523</v>
+        <v>4.8505229999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1831.750000</v>
+        <v>1831.75</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1450.650000</v>
+        <v>-1450.65</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>17289.303347</v>
+        <v>17289.303347000001</v>
       </c>
       <c r="B7" s="1">
-        <v>4.802584</v>
+        <v>4.8025840000000004</v>
       </c>
       <c r="C7" s="1">
-        <v>895.148000</v>
+        <v>895.14800000000002</v>
       </c>
       <c r="D7" s="1">
-        <v>-199.596000</v>
+        <v>-199.596</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>17299.716314</v>
+        <v>17299.716314000001</v>
       </c>
       <c r="G7" s="1">
-        <v>4.805477</v>
+        <v>4.8054769999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>912.380000</v>
+        <v>912.38</v>
       </c>
       <c r="I7" s="1">
-        <v>-168.278000</v>
+        <v>-168.27799999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>17309.872397</v>
+        <v>17309.872396999999</v>
       </c>
       <c r="L7" s="1">
-        <v>4.808298</v>
+        <v>4.8082979999999997</v>
       </c>
       <c r="M7" s="1">
-        <v>935.071000</v>
+        <v>935.07100000000003</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.348000</v>
+        <v>-119.348</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>17320.376206</v>
+        <v>17320.376206000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>4.811216</v>
+        <v>4.8112159999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>941.523000</v>
+        <v>941.52300000000002</v>
       </c>
       <c r="S7" s="1">
-        <v>-102.972000</v>
+        <v>-102.97199999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>17331.234592</v>
+        <v>17331.234592000001</v>
       </c>
       <c r="V7" s="1">
-        <v>4.814232</v>
+        <v>4.8142319999999996</v>
       </c>
       <c r="W7" s="1">
-        <v>947.829000</v>
+        <v>947.82899999999995</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.042700</v>
+        <v>-88.042699999999996</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>17341.686290</v>
+        <v>17341.686290000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>4.817135</v>
+        <v>4.8171350000000004</v>
       </c>
       <c r="AB7" s="1">
-        <v>954.656000</v>
+        <v>954.65599999999995</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.693800</v>
+        <v>-76.693799999999996</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>17352.539748</v>
+        <v>17352.539747999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>4.820150</v>
+        <v>4.8201499999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>959.304000</v>
+        <v>959.30399999999997</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.687000</v>
+        <v>-74.686999999999998</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>17363.081259</v>
+        <v>17363.081258999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>4.823078</v>
+        <v>4.8230779999999998</v>
       </c>
       <c r="AL7" s="1">
-        <v>966.445000</v>
+        <v>966.44500000000005</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.749400</v>
+        <v>-79.749399999999994</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>17373.726359</v>
       </c>
       <c r="AP7" s="1">
-        <v>4.826035</v>
+        <v>4.8260350000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>974.584000</v>
+        <v>974.58399999999995</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.615600</v>
+        <v>-91.615600000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>17384.707289</v>
+        <v>17384.707289000002</v>
       </c>
       <c r="AU7" s="1">
-        <v>4.829085</v>
+        <v>4.8290850000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>984.477000</v>
+        <v>984.47699999999998</v>
       </c>
       <c r="AW7" s="1">
-        <v>-109.609000</v>
+        <v>-109.60899999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>17395.793403</v>
       </c>
       <c r="AZ7" s="1">
-        <v>4.832165</v>
+        <v>4.8321649999999998</v>
       </c>
       <c r="BA7" s="1">
-        <v>992.766000</v>
+        <v>992.76599999999996</v>
       </c>
       <c r="BB7" s="1">
-        <v>-125.484000</v>
+        <v>-125.48399999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>17406.763884</v>
       </c>
       <c r="BE7" s="1">
-        <v>4.835212</v>
+        <v>4.8352120000000003</v>
       </c>
       <c r="BF7" s="1">
-        <v>1031.550000</v>
+        <v>1031.55</v>
       </c>
       <c r="BG7" s="1">
-        <v>-198.393000</v>
+        <v>-198.393</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>17417.969005</v>
+        <v>17417.969004999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>4.838325</v>
+        <v>4.8383250000000002</v>
       </c>
       <c r="BK7" s="1">
-        <v>1098.560000</v>
+        <v>1098.56</v>
       </c>
       <c r="BL7" s="1">
-        <v>-316.846000</v>
+        <v>-316.846</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>17429.181070</v>
+        <v>17429.181069999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>4.841439</v>
+        <v>4.8414390000000003</v>
       </c>
       <c r="BP7" s="1">
-        <v>1207.540000</v>
+        <v>1207.54</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-503.871000</v>
+        <v>-503.87099999999998</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>17439.618429</v>
+        <v>17439.618428999998</v>
       </c>
       <c r="BT7" s="1">
-        <v>4.844338</v>
+        <v>4.8443379999999996</v>
       </c>
       <c r="BU7" s="1">
-        <v>1330.040000</v>
+        <v>1330.04</v>
       </c>
       <c r="BV7" s="1">
-        <v>-709.689000</v>
+        <v>-709.68899999999996</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>17450.355282</v>
@@ -1991,1632 +2407,1632 @@
         <v>4.847321</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1468.090000</v>
+        <v>1468.09</v>
       </c>
       <c r="CA7" s="1">
-        <v>-928.913000</v>
+        <v>-928.91300000000001</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>17462.405587</v>
+        <v>17462.405587000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>4.850668</v>
+        <v>4.8506679999999998</v>
       </c>
       <c r="CE7" s="1">
-        <v>1830.280000</v>
+        <v>1830.28</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1450.110000</v>
+        <v>-1450.11</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>17289.984806</v>
       </c>
       <c r="B8" s="1">
-        <v>4.802774</v>
+        <v>4.8027740000000003</v>
       </c>
       <c r="C8" s="1">
-        <v>895.205000</v>
+        <v>895.20500000000004</v>
       </c>
       <c r="D8" s="1">
-        <v>-199.566000</v>
+        <v>-199.566</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>17300.059578</v>
       </c>
       <c r="G8" s="1">
-        <v>4.805572</v>
+        <v>4.8055719999999997</v>
       </c>
       <c r="H8" s="1">
-        <v>912.329000</v>
+        <v>912.32899999999995</v>
       </c>
       <c r="I8" s="1">
-        <v>-168.414000</v>
+        <v>-168.41399999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>17310.232987</v>
+        <v>17310.232986999999</v>
       </c>
       <c r="L8" s="1">
-        <v>4.808398</v>
+        <v>4.8083980000000004</v>
       </c>
       <c r="M8" s="1">
-        <v>934.995000</v>
+        <v>934.995</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.257000</v>
+        <v>-119.25700000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>17320.725853</v>
       </c>
       <c r="Q8" s="1">
-        <v>4.811313</v>
+        <v>4.8113130000000002</v>
       </c>
       <c r="R8" s="1">
-        <v>941.488000</v>
+        <v>941.48800000000006</v>
       </c>
       <c r="S8" s="1">
-        <v>-102.939000</v>
+        <v>-102.93899999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>17331.894767</v>
+        <v>17331.894767000002</v>
       </c>
       <c r="V8" s="1">
-        <v>4.814415</v>
+        <v>4.8144150000000003</v>
       </c>
       <c r="W8" s="1">
-        <v>947.822000</v>
+        <v>947.822</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.062400</v>
+        <v>-88.062399999999997</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>17342.342002</v>
+        <v>17342.342002000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>4.817317</v>
+        <v>4.8173170000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>954.733000</v>
+        <v>954.73299999999995</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.767600</v>
+        <v>-76.767600000000002</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>17352.924147</v>
+        <v>17352.924147000002</v>
       </c>
       <c r="AF8" s="1">
-        <v>4.820257</v>
+        <v>4.8202569999999998</v>
       </c>
       <c r="AG8" s="1">
-        <v>959.307000</v>
+        <v>959.30700000000002</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.671500</v>
+        <v>-74.671499999999995</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>17363.428454</v>
+        <v>17363.428454000001</v>
       </c>
       <c r="AK8" s="1">
         <v>4.823175</v>
       </c>
       <c r="AL8" s="1">
-        <v>966.469000</v>
+        <v>966.46900000000005</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.703500</v>
+        <v>-79.703500000000005</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>17374.116216</v>
+        <v>17374.116215999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>4.826143</v>
+        <v>4.8261430000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>974.552000</v>
+        <v>974.55200000000002</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.640700</v>
+        <v>-91.640699999999995</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>17385.069401</v>
+        <v>17385.069401000001</v>
       </c>
       <c r="AU8" s="1">
         <v>4.829186</v>
       </c>
       <c r="AV8" s="1">
-        <v>984.453000</v>
+        <v>984.45299999999997</v>
       </c>
       <c r="AW8" s="1">
-        <v>-109.626000</v>
+        <v>-109.626</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>17396.211530</v>
+        <v>17396.21153</v>
       </c>
       <c r="AZ8" s="1">
         <v>4.832281</v>
       </c>
       <c r="BA8" s="1">
-        <v>992.783000</v>
+        <v>992.78300000000002</v>
       </c>
       <c r="BB8" s="1">
-        <v>-125.487000</v>
+        <v>-125.48699999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>17407.186972</v>
       </c>
       <c r="BE8" s="1">
-        <v>4.835330</v>
+        <v>4.8353299999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1031.570000</v>
+        <v>1031.57</v>
       </c>
       <c r="BG8" s="1">
-        <v>-198.404000</v>
+        <v>-198.404</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>17418.332574</v>
       </c>
       <c r="BJ8" s="1">
-        <v>4.838426</v>
+        <v>4.8384260000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1098.580000</v>
+        <v>1098.58</v>
       </c>
       <c r="BL8" s="1">
-        <v>-316.871000</v>
+        <v>-316.87099999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>17429.605678</v>
       </c>
       <c r="BO8" s="1">
-        <v>4.841557</v>
+        <v>4.8415569999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1207.540000</v>
+        <v>1207.54</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-503.897000</v>
+        <v>-503.89699999999999</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>17440.050928</v>
+        <v>17440.050928000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>4.844459</v>
+        <v>4.8444589999999996</v>
       </c>
       <c r="BU8" s="1">
-        <v>1330.070000</v>
+        <v>1330.07</v>
       </c>
       <c r="BV8" s="1">
-        <v>-709.654000</v>
+        <v>-709.654</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>17450.812441</v>
+        <v>17450.812440999998</v>
       </c>
       <c r="BY8" s="1">
         <v>4.847448</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1468.140000</v>
+        <v>1468.14</v>
       </c>
       <c r="CA8" s="1">
-        <v>-929.105000</v>
+        <v>-929.10500000000002</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>17462.944748</v>
+        <v>17462.944748000002</v>
       </c>
       <c r="CD8" s="1">
-        <v>4.850818</v>
+        <v>4.8508180000000003</v>
       </c>
       <c r="CE8" s="1">
-        <v>1831.130000</v>
+        <v>1831.13</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1451.130000</v>
+        <v>-1451.13</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>17290.328040</v>
+        <v>17290.32804</v>
       </c>
       <c r="B9" s="1">
-        <v>4.802869</v>
+        <v>4.8028690000000003</v>
       </c>
       <c r="C9" s="1">
-        <v>895.278000</v>
+        <v>895.27800000000002</v>
       </c>
       <c r="D9" s="1">
-        <v>-199.529000</v>
+        <v>-199.529</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>17300.407242</v>
+        <v>17300.407242000001</v>
       </c>
       <c r="G9" s="1">
         <v>4.805669</v>
       </c>
       <c r="H9" s="1">
-        <v>912.208000</v>
+        <v>912.20799999999997</v>
       </c>
       <c r="I9" s="1">
-        <v>-168.639000</v>
+        <v>-168.63900000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>17310.580187</v>
       </c>
       <c r="L9" s="1">
-        <v>4.808494</v>
+        <v>4.8084939999999996</v>
       </c>
       <c r="M9" s="1">
-        <v>934.831000</v>
+        <v>934.83100000000002</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.257000</v>
+        <v>-119.25700000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>17321.374630</v>
+        <v>17321.374629999998</v>
       </c>
       <c r="Q9" s="1">
-        <v>4.811493</v>
+        <v>4.8114929999999996</v>
       </c>
       <c r="R9" s="1">
-        <v>941.525000</v>
+        <v>941.52499999999998</v>
       </c>
       <c r="S9" s="1">
-        <v>-102.922000</v>
+        <v>-102.922</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>17332.264287</v>
+        <v>17332.264287000002</v>
       </c>
       <c r="V9" s="1">
-        <v>4.814518</v>
+        <v>4.8145179999999996</v>
       </c>
       <c r="W9" s="1">
-        <v>947.849000</v>
+        <v>947.84900000000005</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.025800</v>
+        <v>-88.025800000000004</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>17342.732353</v>
+        <v>17342.732352999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>4.817426</v>
+        <v>4.8174260000000002</v>
       </c>
       <c r="AB9" s="1">
-        <v>954.630000</v>
+        <v>954.63</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.706000</v>
+        <v>-76.706000000000003</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>17353.269362</v>
+        <v>17353.269361999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>4.820353</v>
+        <v>4.8203529999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>959.344000</v>
+        <v>959.34400000000005</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.762100</v>
+        <v>-74.762100000000004</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>17363.777638</v>
       </c>
       <c r="AK9" s="1">
-        <v>4.823272</v>
+        <v>4.8232720000000002</v>
       </c>
       <c r="AL9" s="1">
-        <v>966.456000</v>
+        <v>966.45600000000002</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.723600</v>
+        <v>-79.723600000000005</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>17374.475816</v>
+        <v>17374.475815999998</v>
       </c>
       <c r="AP9" s="1">
-        <v>4.826243</v>
+        <v>4.8262429999999998</v>
       </c>
       <c r="AQ9" s="1">
-        <v>974.554000</v>
+        <v>974.55399999999997</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.615100</v>
+        <v>-91.615099999999998</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>17385.488025</v>
+        <v>17385.488024999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>4.829302</v>
+        <v>4.8293020000000002</v>
       </c>
       <c r="AV9" s="1">
-        <v>984.470000</v>
+        <v>984.47</v>
       </c>
       <c r="AW9" s="1">
-        <v>-109.588000</v>
+        <v>-109.58799999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>17396.521038</v>
+        <v>17396.521037999999</v>
       </c>
       <c r="AZ9" s="1">
-        <v>4.832367</v>
+        <v>4.8323669999999996</v>
       </c>
       <c r="BA9" s="1">
-        <v>992.756000</v>
+        <v>992.75599999999997</v>
       </c>
       <c r="BB9" s="1">
-        <v>-125.475000</v>
+        <v>-125.47499999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>17407.486059</v>
+        <v>17407.486058999999</v>
       </c>
       <c r="BE9" s="1">
         <v>4.835413</v>
       </c>
       <c r="BF9" s="1">
-        <v>1031.570000</v>
+        <v>1031.57</v>
       </c>
       <c r="BG9" s="1">
-        <v>-198.397000</v>
+        <v>-198.39699999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>17418.705100</v>
+        <v>17418.705099999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>4.838529</v>
+        <v>4.8385290000000003</v>
       </c>
       <c r="BK9" s="1">
-        <v>1098.570000</v>
+        <v>1098.57</v>
       </c>
       <c r="BL9" s="1">
-        <v>-316.837000</v>
+        <v>-316.83699999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>17430.002447</v>
+        <v>17430.002446999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>4.841667</v>
+        <v>4.8416670000000002</v>
       </c>
       <c r="BP9" s="1">
-        <v>1207.540000</v>
+        <v>1207.54</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-503.905000</v>
+        <v>-503.90499999999997</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>17440.477488</v>
       </c>
       <c r="BT9" s="1">
-        <v>4.844577</v>
+        <v>4.8445770000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1330.040000</v>
+        <v>1330.04</v>
       </c>
       <c r="BV9" s="1">
-        <v>-709.576000</v>
+        <v>-709.57600000000002</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>17451.259490</v>
+        <v>17451.25949</v>
       </c>
       <c r="BY9" s="1">
-        <v>4.847572</v>
+        <v>4.8475720000000004</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1468.020000</v>
+        <v>1468.02</v>
       </c>
       <c r="CA9" s="1">
-        <v>-928.984000</v>
+        <v>-928.98400000000004</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>17463.481937</v>
       </c>
       <c r="CD9" s="1">
-        <v>4.850967</v>
+        <v>4.8509669999999998</v>
       </c>
       <c r="CE9" s="1">
-        <v>1831.330000</v>
+        <v>1831.33</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1449.750000</v>
+        <v>-1449.75</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>17290.670312</v>
+        <v>17290.670311999998</v>
       </c>
       <c r="B10" s="1">
-        <v>4.802964</v>
+        <v>4.8029640000000002</v>
       </c>
       <c r="C10" s="1">
-        <v>895.196000</v>
+        <v>895.19600000000003</v>
       </c>
       <c r="D10" s="1">
-        <v>-199.596000</v>
+        <v>-199.596</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>17301.064473</v>
+        <v>17301.064472999999</v>
       </c>
       <c r="G10" s="1">
-        <v>4.805851</v>
+        <v>4.8058509999999997</v>
       </c>
       <c r="H10" s="1">
-        <v>912.347000</v>
+        <v>912.34699999999998</v>
       </c>
       <c r="I10" s="1">
-        <v>-168.538000</v>
+        <v>-168.53800000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>17311.270154</v>
+        <v>17311.270154000002</v>
       </c>
       <c r="L10" s="1">
-        <v>4.808686</v>
+        <v>4.8086859999999998</v>
       </c>
       <c r="M10" s="1">
-        <v>935.026000</v>
+        <v>935.02599999999995</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.265000</v>
+        <v>-119.265</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>17321.772444</v>
+        <v>17321.772443999998</v>
       </c>
       <c r="Q10" s="1">
-        <v>4.811603</v>
+        <v>4.8116029999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>941.553000</v>
+        <v>941.553</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.955000</v>
+        <v>-102.955</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>17332.608510</v>
+        <v>17332.608509999998</v>
       </c>
       <c r="V10" s="1">
-        <v>4.814613</v>
+        <v>4.8146129999999996</v>
       </c>
       <c r="W10" s="1">
-        <v>947.818000</v>
+        <v>947.81799999999998</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.056000</v>
+        <v>-88.055999999999997</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>17343.081078</v>
+        <v>17343.081077999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>4.817523</v>
+        <v>4.8175230000000004</v>
       </c>
       <c r="AB10" s="1">
-        <v>954.631000</v>
+        <v>954.63099999999997</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.708400</v>
+        <v>-76.708399999999997</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>17353.612098</v>
+        <v>17353.612098000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>4.820448</v>
+        <v>4.8204479999999998</v>
       </c>
       <c r="AG10" s="1">
-        <v>959.271000</v>
+        <v>959.27099999999996</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.695200</v>
+        <v>-74.6952</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>17364.196724</v>
+        <v>17364.196724000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>4.823388</v>
+        <v>4.8233879999999996</v>
       </c>
       <c r="AL10" s="1">
-        <v>966.450000</v>
+        <v>966.45</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.716300</v>
+        <v>-79.716300000000004</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>17374.893942</v>
+        <v>17374.893941999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>4.826359</v>
+        <v>4.8263590000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>974.567000</v>
+        <v>974.56700000000001</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.619900</v>
+        <v>-91.619900000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>17385.800987</v>
+        <v>17385.800986999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>4.829389</v>
+        <v>4.8293889999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>984.469000</v>
+        <v>984.46900000000005</v>
       </c>
       <c r="AW10" s="1">
-        <v>-109.579000</v>
+        <v>-109.57899999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>17396.879609</v>
       </c>
       <c r="AZ10" s="1">
-        <v>4.832467</v>
+        <v>4.8324670000000003</v>
       </c>
       <c r="BA10" s="1">
-        <v>992.747000</v>
+        <v>992.74699999999996</v>
       </c>
       <c r="BB10" s="1">
-        <v>-125.484000</v>
+        <v>-125.48399999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>17407.847147</v>
       </c>
       <c r="BE10" s="1">
-        <v>4.835513</v>
+        <v>4.8355129999999997</v>
       </c>
       <c r="BF10" s="1">
-        <v>1031.590000</v>
+        <v>1031.5899999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-198.401000</v>
+        <v>-198.40100000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>17419.091948</v>
+        <v>17419.091948000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>4.838637</v>
+        <v>4.8386370000000003</v>
       </c>
       <c r="BK10" s="1">
-        <v>1098.550000</v>
+        <v>1098.55</v>
       </c>
       <c r="BL10" s="1">
-        <v>-316.872000</v>
+        <v>-316.87200000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>17430.426029</v>
+        <v>17430.426028999998</v>
       </c>
       <c r="BO10" s="1">
-        <v>4.841785</v>
+        <v>4.8417849999999998</v>
       </c>
       <c r="BP10" s="1">
-        <v>1207.540000</v>
+        <v>1207.54</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-503.939000</v>
+        <v>-503.93900000000002</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>17440.904016</v>
       </c>
       <c r="BT10" s="1">
-        <v>4.844696</v>
+        <v>4.8446959999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1330.080000</v>
+        <v>1330.08</v>
       </c>
       <c r="BV10" s="1">
-        <v>-709.531000</v>
+        <v>-709.53099999999995</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>17451.680626</v>
+        <v>17451.680626000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>4.847689</v>
+        <v>4.8476889999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1468.190000</v>
+        <v>1468.19</v>
       </c>
       <c r="CA10" s="1">
-        <v>-929.024000</v>
+        <v>-929.024</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>17464.023072</v>
       </c>
       <c r="CD10" s="1">
-        <v>4.851118</v>
+        <v>4.8511179999999996</v>
       </c>
       <c r="CE10" s="1">
-        <v>1830.220000</v>
+        <v>1830.22</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1451.270000</v>
+        <v>-1451.27</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>17291.319082</v>
+        <v>17291.319082000002</v>
       </c>
       <c r="B11" s="1">
-        <v>4.803144</v>
+        <v>4.8031439999999996</v>
       </c>
       <c r="C11" s="1">
-        <v>895.204000</v>
+        <v>895.20399999999995</v>
       </c>
       <c r="D11" s="1">
-        <v>-199.756000</v>
+        <v>-199.756</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>17301.440407</v>
+        <v>17301.440406999998</v>
       </c>
       <c r="G11" s="1">
-        <v>4.805956</v>
+        <v>4.8059560000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>912.478000</v>
+        <v>912.47799999999995</v>
       </c>
       <c r="I11" s="1">
-        <v>-168.819000</v>
+        <v>-168.81899999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>17311.615835</v>
+        <v>17311.615835000001</v>
       </c>
       <c r="L11" s="1">
-        <v>4.808782</v>
+        <v>4.8087819999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>935.081000</v>
+        <v>935.08100000000002</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.172000</v>
+        <v>-119.172</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>17322.121596</v>
+        <v>17322.121596000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>4.811700</v>
+        <v>4.8117000000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>941.524000</v>
+        <v>941.524</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.967000</v>
+        <v>-102.967</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>17332.951743</v>
+        <v>17332.951743000001</v>
       </c>
       <c r="V11" s="1">
-        <v>4.814709</v>
+        <v>4.8147089999999997</v>
       </c>
       <c r="W11" s="1">
-        <v>947.839000</v>
+        <v>947.83900000000006</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.035000</v>
+        <v>-88.034999999999997</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>17343.429264</v>
+        <v>17343.429263999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>4.817619</v>
+        <v>4.8176189999999997</v>
       </c>
       <c r="AB11" s="1">
-        <v>954.658000</v>
+        <v>954.65800000000002</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.538600</v>
+        <v>-76.538600000000002</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>17354.031219</v>
       </c>
       <c r="AF11" s="1">
-        <v>4.820564</v>
+        <v>4.8205640000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>959.278000</v>
+        <v>959.27800000000002</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.682600</v>
+        <v>-74.682599999999994</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>17364.475973</v>
+        <v>17364.475973000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>4.823466</v>
+        <v>4.8234659999999998</v>
       </c>
       <c r="AL11" s="1">
-        <v>966.452000</v>
+        <v>966.452</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.742500</v>
+        <v>-79.742500000000007</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>17375.199478</v>
+        <v>17375.199477999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>4.826444</v>
+        <v>4.8264440000000004</v>
       </c>
       <c r="AQ11" s="1">
-        <v>974.560000</v>
+        <v>974.56</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.616200</v>
+        <v>-91.616200000000006</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>17386.163074</v>
       </c>
       <c r="AU11" s="1">
-        <v>4.829490</v>
+        <v>4.8294899999999998</v>
       </c>
       <c r="AV11" s="1">
-        <v>984.471000</v>
+        <v>984.471</v>
       </c>
       <c r="AW11" s="1">
-        <v>-109.603000</v>
+        <v>-109.60299999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>17397.239245</v>
+        <v>17397.239245000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>4.832566</v>
+        <v>4.8325659999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>992.761000</v>
+        <v>992.76099999999997</v>
       </c>
       <c r="BB11" s="1">
-        <v>-125.475000</v>
+        <v>-125.47499999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>17408.208234</v>
+        <v>17408.208234000002</v>
       </c>
       <c r="BE11" s="1">
-        <v>4.835613</v>
+        <v>4.8356130000000004</v>
       </c>
       <c r="BF11" s="1">
-        <v>1031.580000</v>
+        <v>1031.58</v>
       </c>
       <c r="BG11" s="1">
-        <v>-198.412000</v>
+        <v>-198.41200000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>17419.855292</v>
       </c>
       <c r="BJ11" s="1">
-        <v>4.838849</v>
+        <v>4.8388489999999997</v>
       </c>
       <c r="BK11" s="1">
-        <v>1098.580000</v>
+        <v>1098.58</v>
       </c>
       <c r="BL11" s="1">
-        <v>-316.856000</v>
+        <v>-316.85599999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>17430.811916</v>
+        <v>17430.811915999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>4.841892</v>
+        <v>4.8418919999999996</v>
       </c>
       <c r="BP11" s="1">
-        <v>1207.540000</v>
+        <v>1207.54</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-503.929000</v>
+        <v>-503.92899999999997</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>17441.323136</v>
+        <v>17441.323135999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>4.844812</v>
+        <v>4.8448120000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1330.040000</v>
+        <v>1330.04</v>
       </c>
       <c r="BV11" s="1">
-        <v>-709.434000</v>
+        <v>-709.43399999999997</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>17452.102193</v>
+        <v>17452.102192999999</v>
       </c>
       <c r="BY11" s="1">
-        <v>4.847806</v>
+        <v>4.8478060000000003</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1468.120000</v>
+        <v>1468.12</v>
       </c>
       <c r="CA11" s="1">
-        <v>-928.825000</v>
+        <v>-928.82500000000005</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>17464.866737</v>
       </c>
       <c r="CD11" s="1">
-        <v>4.851352</v>
+        <v>4.8513520000000003</v>
       </c>
       <c r="CE11" s="1">
-        <v>1830.910000</v>
+        <v>1830.91</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1449.700000</v>
+        <v>-1449.7</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>17291.695039</v>
+        <v>17291.695038999998</v>
       </c>
       <c r="B12" s="1">
-        <v>4.803249</v>
+        <v>4.8032490000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>895.221000</v>
+        <v>895.221</v>
       </c>
       <c r="D12" s="1">
-        <v>-199.658000</v>
+        <v>-199.65799999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>17301.783640</v>
+        <v>17301.783640000001</v>
       </c>
       <c r="G12" s="1">
-        <v>4.806051</v>
+        <v>4.8060510000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>912.484000</v>
+        <v>912.48400000000004</v>
       </c>
       <c r="I12" s="1">
-        <v>-168.407000</v>
+        <v>-168.40700000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>17311.961050</v>
+        <v>17311.961050000002</v>
       </c>
       <c r="L12" s="1">
         <v>4.808878</v>
       </c>
       <c r="M12" s="1">
-        <v>934.963000</v>
+        <v>934.96299999999997</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.141000</v>
+        <v>-119.14100000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>17322.471276</v>
       </c>
       <c r="Q12" s="1">
-        <v>4.811798</v>
+        <v>4.8117979999999996</v>
       </c>
       <c r="R12" s="1">
-        <v>941.518000</v>
+        <v>941.51800000000003</v>
       </c>
       <c r="S12" s="1">
-        <v>-102.948000</v>
+        <v>-102.94799999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>17333.362958</v>
+        <v>17333.362958000002</v>
       </c>
       <c r="V12" s="1">
-        <v>4.814823</v>
+        <v>4.8148229999999996</v>
       </c>
       <c r="W12" s="1">
-        <v>947.826000</v>
+        <v>947.82600000000002</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.004600</v>
+        <v>-88.004599999999996</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>17343.897953</v>
       </c>
       <c r="AA12" s="1">
-        <v>4.817749</v>
+        <v>4.8177490000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>954.715000</v>
+        <v>954.71500000000003</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.656700</v>
+        <v>-76.656700000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>17354.325841</v>
+        <v>17354.325841000002</v>
       </c>
       <c r="AF12" s="1">
         <v>4.820646</v>
       </c>
       <c r="AG12" s="1">
-        <v>959.366000</v>
+        <v>959.36599999999999</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.702700</v>
+        <v>-74.702699999999993</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>17364.826682</v>
+        <v>17364.826681999999</v>
       </c>
       <c r="AK12" s="1">
         <v>4.823563</v>
       </c>
       <c r="AL12" s="1">
-        <v>966.436000</v>
+        <v>966.43600000000004</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.728600</v>
+        <v>-79.7286</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>17375.559078</v>
+        <v>17375.559077999998</v>
       </c>
       <c r="AP12" s="1">
-        <v>4.826544</v>
+        <v>4.8265440000000002</v>
       </c>
       <c r="AQ12" s="1">
-        <v>974.559000</v>
+        <v>974.55899999999997</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.613100</v>
+        <v>-91.613100000000003</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>17386.527608</v>
       </c>
       <c r="AU12" s="1">
-        <v>4.829591</v>
+        <v>4.8295909999999997</v>
       </c>
       <c r="AV12" s="1">
-        <v>984.486000</v>
+        <v>984.48599999999999</v>
       </c>
       <c r="AW12" s="1">
-        <v>-109.625000</v>
+        <v>-109.625</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>17397.959896</v>
       </c>
       <c r="AZ12" s="1">
-        <v>4.832767</v>
+        <v>4.8327669999999996</v>
       </c>
       <c r="BA12" s="1">
-        <v>992.743000</v>
+        <v>992.74300000000005</v>
       </c>
       <c r="BB12" s="1">
-        <v>-125.461000</v>
+        <v>-125.461</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>17408.930425</v>
+        <v>17408.930424999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>4.835814</v>
+        <v>4.8358140000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1031.560000</v>
+        <v>1031.56</v>
       </c>
       <c r="BG12" s="1">
-        <v>-198.399000</v>
+        <v>-198.399</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>17420.232747</v>
+        <v>17420.232746999998</v>
       </c>
       <c r="BJ12" s="1">
-        <v>4.838954</v>
+        <v>4.8389540000000002</v>
       </c>
       <c r="BK12" s="1">
-        <v>1098.540000</v>
+        <v>1098.54</v>
       </c>
       <c r="BL12" s="1">
-        <v>-316.842000</v>
+        <v>-316.84199999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>17431.241452</v>
+        <v>17431.241451999998</v>
       </c>
       <c r="BO12" s="1">
-        <v>4.842012</v>
+        <v>4.8420120000000004</v>
       </c>
       <c r="BP12" s="1">
-        <v>1207.540000</v>
+        <v>1207.54</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-503.934000</v>
+        <v>-503.93400000000003</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>17441.753198</v>
+        <v>17441.753197999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>4.844931</v>
+        <v>4.8449309999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1330.070000</v>
+        <v>1330.07</v>
       </c>
       <c r="BV12" s="1">
-        <v>-709.444000</v>
+        <v>-709.44399999999996</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>17452.835776</v>
       </c>
       <c r="BY12" s="1">
-        <v>4.848010</v>
+        <v>4.8480100000000004</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1468.020000</v>
+        <v>1468.02</v>
       </c>
       <c r="CA12" s="1">
-        <v>-928.945000</v>
+        <v>-928.94500000000005</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>17465.101343</v>
+        <v>17465.101342999998</v>
       </c>
       <c r="CD12" s="1">
-        <v>4.851417</v>
+        <v>4.8514169999999996</v>
       </c>
       <c r="CE12" s="1">
-        <v>1830.700000</v>
+        <v>1830.7</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1449.700000</v>
+        <v>-1449.7</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>17292.036293</v>
+        <v>17292.036293000001</v>
       </c>
       <c r="B13" s="1">
-        <v>4.803343</v>
+        <v>4.8033429999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>894.961000</v>
+        <v>894.96100000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-199.667000</v>
+        <v>-199.667</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>17302.127862</v>
+        <v>17302.127862000001</v>
       </c>
       <c r="G13" s="1">
-        <v>4.806147</v>
+        <v>4.8061470000000002</v>
       </c>
       <c r="H13" s="1">
-        <v>912.719000</v>
+        <v>912.71900000000005</v>
       </c>
       <c r="I13" s="1">
-        <v>-168.042000</v>
+        <v>-168.042</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>17312.383183</v>
+        <v>17312.383183000002</v>
       </c>
       <c r="L13" s="1">
-        <v>4.808995</v>
+        <v>4.8089950000000004</v>
       </c>
       <c r="M13" s="1">
-        <v>935.006000</v>
+        <v>935.00599999999997</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.187000</v>
+        <v>-119.187</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>17322.895355</v>
+        <v>17322.895355000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>4.811915</v>
+        <v>4.8119149999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>941.504000</v>
+        <v>941.50400000000002</v>
       </c>
       <c r="S13" s="1">
-        <v>-102.932000</v>
+        <v>-102.932</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>17333.640221</v>
+        <v>17333.640221000001</v>
       </c>
       <c r="V13" s="1">
-        <v>4.814900</v>
+        <v>4.8148999999999997</v>
       </c>
       <c r="W13" s="1">
-        <v>947.851000</v>
+        <v>947.851</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.034500</v>
+        <v>-88.034499999999994</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>17344.148463</v>
+        <v>17344.148463000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>4.817819</v>
+        <v>4.8178190000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>954.759000</v>
+        <v>954.75900000000001</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.634800</v>
+        <v>-76.634799999999998</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>17354.664641</v>
+        <v>17354.664640999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>4.820740</v>
+        <v>4.8207399999999998</v>
       </c>
       <c r="AG13" s="1">
-        <v>959.354000</v>
+        <v>959.35400000000004</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.706400</v>
+        <v>-74.706400000000002</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>17365.172884</v>
       </c>
       <c r="AK13" s="1">
-        <v>4.823659</v>
+        <v>4.8236590000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>966.436000</v>
+        <v>966.43600000000004</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.742700</v>
+        <v>-79.742699999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>17375.920662</v>
       </c>
       <c r="AP13" s="1">
-        <v>4.826645</v>
+        <v>4.8266450000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>974.547000</v>
+        <v>974.54700000000003</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.615600</v>
+        <v>-91.615600000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>17387.256231</v>
+        <v>17387.256230999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>4.829793</v>
+        <v>4.8297929999999996</v>
       </c>
       <c r="AV13" s="1">
-        <v>984.470000</v>
+        <v>984.47</v>
       </c>
       <c r="AW13" s="1">
-        <v>-109.626000</v>
+        <v>-109.626</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>17398.335863</v>
       </c>
       <c r="AZ13" s="1">
-        <v>4.832871</v>
+        <v>4.8328709999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>992.761000</v>
+        <v>992.76099999999997</v>
       </c>
       <c r="BB13" s="1">
-        <v>-125.480000</v>
+        <v>-125.48</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>17409.319311</v>
+        <v>17409.319310999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>4.835922</v>
+        <v>4.8359220000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1031.590000</v>
+        <v>1031.5899999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-198.413000</v>
+        <v>-198.41300000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>17420.605242</v>
+        <v>17420.605242000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>4.839057</v>
+        <v>4.8390570000000004</v>
       </c>
       <c r="BK13" s="1">
-        <v>1098.530000</v>
+        <v>1098.53</v>
       </c>
       <c r="BL13" s="1">
-        <v>-316.856000</v>
+        <v>-316.85599999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>17431.955196</v>
+        <v>17431.955195999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>4.842210</v>
+        <v>4.8422099999999997</v>
       </c>
       <c r="BP13" s="1">
-        <v>1207.520000</v>
+        <v>1207.52</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-503.934000</v>
+        <v>-503.93400000000003</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>17442.465919</v>
+        <v>17442.465918999998</v>
       </c>
       <c r="BT13" s="1">
         <v>4.845129</v>
       </c>
       <c r="BU13" s="1">
-        <v>1330.140000</v>
+        <v>1330.14</v>
       </c>
       <c r="BV13" s="1">
-        <v>-709.400000</v>
+        <v>-709.4</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>17452.944896</v>
+        <v>17452.944896000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>4.848040</v>
+        <v>4.8480400000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1468.070000</v>
+        <v>1468.07</v>
       </c>
       <c r="CA13" s="1">
-        <v>-928.973000</v>
+        <v>-928.97299999999996</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>17465.617215</v>
+        <v>17465.617214999998</v>
       </c>
       <c r="CD13" s="1">
-        <v>4.851560</v>
+        <v>4.8515600000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>1830.140000</v>
+        <v>1830.14</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1450.950000</v>
+        <v>-1450.95</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>17292.377508</v>
+        <v>17292.377508000001</v>
       </c>
       <c r="B14" s="1">
-        <v>4.803438</v>
+        <v>4.8034379999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>895.147000</v>
+        <v>895.14700000000005</v>
       </c>
       <c r="D14" s="1">
-        <v>-199.635000</v>
+        <v>-199.63499999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>17302.546983</v>
       </c>
       <c r="G14" s="1">
-        <v>4.806263</v>
+        <v>4.8062630000000004</v>
       </c>
       <c r="H14" s="1">
-        <v>912.545000</v>
+        <v>912.54499999999996</v>
       </c>
       <c r="I14" s="1">
-        <v>-168.122000</v>
+        <v>-168.12200000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>17312.655976</v>
+        <v>17312.655975999998</v>
       </c>
       <c r="L14" s="1">
-        <v>4.809071</v>
+        <v>4.8090710000000003</v>
       </c>
       <c r="M14" s="1">
-        <v>935.063000</v>
+        <v>935.06299999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.158000</v>
+        <v>-119.158</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>17323.173116</v>
+        <v>17323.173116000002</v>
       </c>
       <c r="Q14" s="1">
-        <v>4.811993</v>
+        <v>4.8119930000000002</v>
       </c>
       <c r="R14" s="1">
-        <v>941.508000</v>
+        <v>941.50800000000004</v>
       </c>
       <c r="S14" s="1">
-        <v>-102.923000</v>
+        <v>-102.923</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>17333.989608</v>
@@ -3625,13 +4041,13 @@
         <v>4.814997</v>
       </c>
       <c r="W14" s="1">
-        <v>947.779000</v>
+        <v>947.779</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.070700</v>
+        <v>-88.070700000000002</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>17344.491168</v>
@@ -3640,904 +4056,904 @@
         <v>4.817914</v>
       </c>
       <c r="AB14" s="1">
-        <v>954.643000</v>
+        <v>954.64300000000003</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.627500</v>
+        <v>-76.627499999999998</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>17355.016273</v>
+        <v>17355.016273000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>4.820838</v>
+        <v>4.8208380000000002</v>
       </c>
       <c r="AG14" s="1">
-        <v>959.441000</v>
+        <v>959.44100000000003</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.675500</v>
+        <v>-74.6755</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>17365.871714</v>
+        <v>17365.871714000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>4.823853</v>
+        <v>4.8238529999999997</v>
       </c>
       <c r="AL14" s="1">
-        <v>966.453000</v>
+        <v>966.45299999999997</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.723700</v>
+        <v>-79.723699999999994</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>17376.637412</v>
       </c>
       <c r="AP14" s="1">
-        <v>4.826844</v>
+        <v>4.8268440000000004</v>
       </c>
       <c r="AQ14" s="1">
-        <v>974.578000</v>
+        <v>974.57799999999997</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.613500</v>
+        <v>-91.613500000000002</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>17387.647573</v>
+        <v>17387.647572999998</v>
       </c>
       <c r="AU14" s="1">
-        <v>4.829902</v>
+        <v>4.8299019999999997</v>
       </c>
       <c r="AV14" s="1">
-        <v>984.488000</v>
+        <v>984.48800000000006</v>
       </c>
       <c r="AW14" s="1">
-        <v>-109.619000</v>
+        <v>-109.619</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>17398.713817</v>
       </c>
       <c r="AZ14" s="1">
-        <v>4.832976</v>
+        <v>4.8329760000000004</v>
       </c>
       <c r="BA14" s="1">
-        <v>992.747000</v>
+        <v>992.74699999999996</v>
       </c>
       <c r="BB14" s="1">
-        <v>-125.488000</v>
+        <v>-125.488</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>17409.679864</v>
+        <v>17409.679864000002</v>
       </c>
       <c r="BE14" s="1">
-        <v>4.836022</v>
+        <v>4.8360219999999998</v>
       </c>
       <c r="BF14" s="1">
-        <v>1031.570000</v>
+        <v>1031.57</v>
       </c>
       <c r="BG14" s="1">
-        <v>-198.384000</v>
+        <v>-198.38399999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>17421.310555</v>
       </c>
       <c r="BJ14" s="1">
-        <v>4.839253</v>
+        <v>4.8392530000000002</v>
       </c>
       <c r="BK14" s="1">
-        <v>1098.580000</v>
+        <v>1098.58</v>
       </c>
       <c r="BL14" s="1">
-        <v>-316.843000</v>
+        <v>-316.84300000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>17432.078699</v>
+        <v>17432.078699000002</v>
       </c>
       <c r="BO14" s="1">
         <v>4.842244</v>
       </c>
       <c r="BP14" s="1">
-        <v>1207.540000</v>
+        <v>1207.54</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-503.936000</v>
+        <v>-503.93599999999998</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>17442.595373</v>
       </c>
       <c r="BT14" s="1">
-        <v>4.845165</v>
+        <v>4.8451649999999997</v>
       </c>
       <c r="BU14" s="1">
-        <v>1330.140000</v>
+        <v>1330.14</v>
       </c>
       <c r="BV14" s="1">
-        <v>-709.379000</v>
+        <v>-709.37900000000002</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>17453.382895</v>
+        <v>17453.382894999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>4.848162</v>
+        <v>4.8481620000000003</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1468.020000</v>
+        <v>1468.02</v>
       </c>
       <c r="CA14" s="1">
-        <v>-929.077000</v>
+        <v>-929.077</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>17466.141491</v>
+        <v>17466.141490999998</v>
       </c>
       <c r="CD14" s="1">
-        <v>4.851706</v>
+        <v>4.8517060000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1831.910000</v>
+        <v>1831.91</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1450.380000</v>
+        <v>-1450.38</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>17292.828371</v>
       </c>
       <c r="B15" s="1">
-        <v>4.803563</v>
+        <v>4.8035629999999996</v>
       </c>
       <c r="C15" s="1">
-        <v>895.099000</v>
+        <v>895.09900000000005</v>
       </c>
       <c r="D15" s="1">
-        <v>-199.459000</v>
+        <v>-199.459</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>17302.840118</v>
       </c>
       <c r="G15" s="1">
-        <v>4.806344</v>
+        <v>4.8063440000000002</v>
       </c>
       <c r="H15" s="1">
-        <v>912.563000</v>
+        <v>912.56299999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-167.978000</v>
+        <v>-167.97800000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>17313.002152</v>
+        <v>17313.002152000001</v>
       </c>
       <c r="L15" s="1">
-        <v>4.809167</v>
+        <v>4.8091670000000004</v>
       </c>
       <c r="M15" s="1">
-        <v>934.879000</v>
+        <v>934.87900000000002</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.242000</v>
+        <v>-119.242</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>17323.520810</v>
+        <v>17323.520810000002</v>
       </c>
       <c r="Q15" s="1">
-        <v>4.812089</v>
+        <v>4.8120890000000003</v>
       </c>
       <c r="R15" s="1">
-        <v>941.527000</v>
+        <v>941.52700000000004</v>
       </c>
       <c r="S15" s="1">
-        <v>-102.904000</v>
+        <v>-102.904</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>17334.330124</v>
       </c>
       <c r="V15" s="1">
-        <v>4.815092</v>
+        <v>4.8150919999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>947.783000</v>
+        <v>947.78300000000002</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.021300</v>
+        <v>-88.021299999999997</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>17345.188541</v>
       </c>
       <c r="AA15" s="1">
-        <v>4.818108</v>
+        <v>4.8181079999999996</v>
       </c>
       <c r="AB15" s="1">
-        <v>954.719000</v>
+        <v>954.71900000000005</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.699300</v>
+        <v>-76.699299999999994</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>17355.710176</v>
+        <v>17355.710176000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>4.821031</v>
+        <v>4.8210309999999996</v>
       </c>
       <c r="AG15" s="1">
-        <v>959.335000</v>
+        <v>959.33500000000004</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.690600</v>
+        <v>-74.690600000000003</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>17366.218418</v>
       </c>
       <c r="AK15" s="1">
-        <v>4.823950</v>
+        <v>4.82395</v>
       </c>
       <c r="AL15" s="1">
-        <v>966.456000</v>
+        <v>966.45600000000002</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.721500</v>
+        <v>-79.721500000000006</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>17377.000453</v>
+        <v>17377.000453000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>4.826945</v>
+        <v>4.8269450000000003</v>
       </c>
       <c r="AQ15" s="1">
-        <v>974.550000</v>
+        <v>974.55</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.619200</v>
+        <v>-91.619200000000006</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>17388.013657</v>
       </c>
       <c r="AU15" s="1">
-        <v>4.830004</v>
+        <v>4.8300039999999997</v>
       </c>
       <c r="AV15" s="1">
-        <v>984.472000</v>
+        <v>984.47199999999998</v>
       </c>
       <c r="AW15" s="1">
-        <v>-109.606000</v>
+        <v>-109.60599999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>17399.381462</v>
+        <v>17399.381462000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>4.833162</v>
+        <v>4.8331619999999997</v>
       </c>
       <c r="BA15" s="1">
-        <v>992.754000</v>
+        <v>992.75400000000002</v>
       </c>
       <c r="BB15" s="1">
-        <v>-125.474000</v>
+        <v>-125.474</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>17410.407991</v>
       </c>
       <c r="BE15" s="1">
-        <v>4.836224</v>
+        <v>4.8362239999999996</v>
       </c>
       <c r="BF15" s="1">
-        <v>1031.560000</v>
+        <v>1031.56</v>
       </c>
       <c r="BG15" s="1">
-        <v>-198.403000</v>
+        <v>-198.40299999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>17421.755002</v>
+        <v>17421.755002000002</v>
       </c>
       <c r="BJ15" s="1">
-        <v>4.839376</v>
+        <v>4.8393759999999997</v>
       </c>
       <c r="BK15" s="1">
-        <v>1098.560000</v>
+        <v>1098.56</v>
       </c>
       <c r="BL15" s="1">
-        <v>-316.880000</v>
+        <v>-316.88</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>17432.487402</v>
+        <v>17432.487401999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>4.842358</v>
+        <v>4.8423579999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1207.520000</v>
+        <v>1207.52</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-503.917000</v>
+        <v>-503.91699999999997</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>17443.032348</v>
+        <v>17443.032348000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>4.845287</v>
+        <v>4.8452869999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1330.170000</v>
+        <v>1330.17</v>
       </c>
       <c r="BV15" s="1">
-        <v>-709.312000</v>
+        <v>-709.31200000000001</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>17453.804462</v>
       </c>
       <c r="BY15" s="1">
-        <v>4.848279</v>
+        <v>4.8482789999999998</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1468.170000</v>
+        <v>1468.17</v>
       </c>
       <c r="CA15" s="1">
-        <v>-928.908000</v>
+        <v>-928.90800000000002</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>17466.678125</v>
+        <v>17466.678124999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>4.851855</v>
+        <v>4.8518549999999996</v>
       </c>
       <c r="CE15" s="1">
-        <v>1830.450000</v>
+        <v>1830.45</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1450.130000</v>
+        <v>-1450.13</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>17293.080340</v>
+        <v>17293.08034</v>
       </c>
       <c r="B16" s="1">
-        <v>4.803633</v>
+        <v>4.8036329999999996</v>
       </c>
       <c r="C16" s="1">
-        <v>895.152000</v>
+        <v>895.15200000000004</v>
       </c>
       <c r="D16" s="1">
-        <v>-199.386000</v>
+        <v>-199.386</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>17303.183350</v>
+        <v>17303.183349999999</v>
       </c>
       <c r="G16" s="1">
-        <v>4.806440</v>
+        <v>4.8064400000000003</v>
       </c>
       <c r="H16" s="1">
-        <v>912.416000</v>
+        <v>912.41600000000005</v>
       </c>
       <c r="I16" s="1">
-        <v>-168.887000</v>
+        <v>-168.887</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>17313.347367</v>
+        <v>17313.347366999998</v>
       </c>
       <c r="L16" s="1">
-        <v>4.809263</v>
+        <v>4.8092629999999996</v>
       </c>
       <c r="M16" s="1">
-        <v>935.021000</v>
+        <v>935.02099999999996</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.121000</v>
+        <v>-119.121</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>17323.868011</v>
+        <v>17323.868010999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>4.812186</v>
+        <v>4.8121859999999996</v>
       </c>
       <c r="R16" s="1">
-        <v>941.546000</v>
+        <v>941.54600000000005</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.952000</v>
+        <v>-102.952</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>17335.019067</v>
+        <v>17335.019067000001</v>
       </c>
       <c r="V16" s="1">
         <v>4.815283</v>
       </c>
       <c r="W16" s="1">
-        <v>947.760000</v>
+        <v>947.76</v>
       </c>
       <c r="X16" s="1">
-        <v>-87.986900</v>
+        <v>-87.986900000000006</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>17345.533263</v>
+        <v>17345.533263000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>4.818204</v>
+        <v>4.8182039999999997</v>
       </c>
       <c r="AB16" s="1">
-        <v>954.710000</v>
+        <v>954.71</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.599500</v>
+        <v>-76.599500000000006</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>17356.051919</v>
+        <v>17356.051919000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>4.821126</v>
+        <v>4.8211259999999996</v>
       </c>
       <c r="AG16" s="1">
-        <v>959.316000</v>
+        <v>959.31600000000003</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.674500</v>
+        <v>-74.674499999999995</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>17366.566609</v>
+        <v>17366.566609000001</v>
       </c>
       <c r="AK16" s="1">
-        <v>4.824046</v>
+        <v>4.8240460000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>966.481000</v>
+        <v>966.48099999999999</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.749000</v>
+        <v>-79.748999999999995</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>17377.659635</v>
       </c>
       <c r="AP16" s="1">
-        <v>4.827128</v>
+        <v>4.8271280000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>974.574000</v>
+        <v>974.57399999999996</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.617500</v>
+        <v>-91.617500000000007</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>17388.677764</v>
       </c>
       <c r="AU16" s="1">
-        <v>4.830188</v>
+        <v>4.8301879999999997</v>
       </c>
       <c r="AV16" s="1">
-        <v>984.464000</v>
+        <v>984.46400000000006</v>
       </c>
       <c r="AW16" s="1">
-        <v>-109.598000</v>
+        <v>-109.598</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>17399.796591</v>
+        <v>17399.796590999998</v>
       </c>
       <c r="AZ16" s="1">
-        <v>4.833277</v>
+        <v>4.8332769999999998</v>
       </c>
       <c r="BA16" s="1">
-        <v>992.763000</v>
+        <v>992.76300000000003</v>
       </c>
       <c r="BB16" s="1">
-        <v>-125.469000</v>
+        <v>-125.46899999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>17410.782663</v>
+        <v>17410.782663000002</v>
       </c>
       <c r="BE16" s="1">
-        <v>4.836329</v>
+        <v>4.8363290000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1031.570000</v>
+        <v>1031.57</v>
       </c>
       <c r="BG16" s="1">
-        <v>-198.409000</v>
+        <v>-198.40899999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>17422.159705</v>
+        <v>17422.159704999998</v>
       </c>
       <c r="BJ16" s="1">
-        <v>4.839489</v>
+        <v>4.8394890000000004</v>
       </c>
       <c r="BK16" s="1">
-        <v>1098.580000</v>
+        <v>1098.58</v>
       </c>
       <c r="BL16" s="1">
-        <v>-316.854000</v>
+        <v>-316.85399999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>17432.885195</v>
+        <v>17432.885194999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>4.842468</v>
+        <v>4.8424680000000002</v>
       </c>
       <c r="BP16" s="1">
-        <v>1207.520000</v>
+        <v>1207.52</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-503.892000</v>
+        <v>-503.892</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>17443.459939</v>
       </c>
       <c r="BT16" s="1">
-        <v>4.845406</v>
+        <v>4.8454059999999997</v>
       </c>
       <c r="BU16" s="1">
-        <v>1330.260000</v>
+        <v>1330.26</v>
       </c>
       <c r="BV16" s="1">
-        <v>-709.349000</v>
+        <v>-709.34900000000005</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>17454.224573</v>
       </c>
       <c r="BY16" s="1">
-        <v>4.848396</v>
+        <v>4.8483960000000002</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1468.010000</v>
+        <v>1468.01</v>
       </c>
       <c r="CA16" s="1">
-        <v>-928.887000</v>
+        <v>-928.88699999999994</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>17467.218301</v>
+        <v>17467.218301000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>4.852005</v>
+        <v>4.8520050000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>1831.340000</v>
+        <v>1831.34</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1451.500000</v>
+        <v>-1451.5</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>17293.420098</v>
+        <v>17293.420097999999</v>
       </c>
       <c r="B17" s="1">
-        <v>4.803728</v>
+        <v>4.8037280000000004</v>
       </c>
       <c r="C17" s="1">
-        <v>895.185000</v>
+        <v>895.18499999999995</v>
       </c>
       <c r="D17" s="1">
-        <v>-199.606000</v>
+        <v>-199.60599999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>17303.529060</v>
+        <v>17303.529060000001</v>
       </c>
       <c r="G17" s="1">
-        <v>4.806536</v>
+        <v>4.8065360000000004</v>
       </c>
       <c r="H17" s="1">
-        <v>912.233000</v>
+        <v>912.23299999999995</v>
       </c>
       <c r="I17" s="1">
-        <v>-168.738000</v>
+        <v>-168.738</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>17314.036808</v>
+        <v>17314.036808000001</v>
       </c>
       <c r="L17" s="1">
-        <v>4.809455</v>
+        <v>4.8094549999999998</v>
       </c>
       <c r="M17" s="1">
-        <v>935.147000</v>
+        <v>935.14700000000005</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.058000</v>
+        <v>-119.05800000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>17324.564889</v>
+        <v>17324.564889000001</v>
       </c>
       <c r="Q17" s="1">
         <v>4.812379</v>
       </c>
       <c r="R17" s="1">
-        <v>941.530000</v>
+        <v>941.53</v>
       </c>
       <c r="S17" s="1">
-        <v>-102.968000</v>
+        <v>-102.968</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>17335.361835</v>
       </c>
       <c r="V17" s="1">
-        <v>4.815378</v>
+        <v>4.8153779999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>947.788000</v>
+        <v>947.78800000000001</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.052100</v>
+        <v>-88.052099999999996</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>17345.881980</v>
+        <v>17345.881979999998</v>
       </c>
       <c r="AA17" s="1">
-        <v>4.818301</v>
+        <v>4.8183009999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>954.631000</v>
+        <v>954.63099999999997</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.661300</v>
+        <v>-76.661299999999997</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>17356.400111</v>
+        <v>17356.400110999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>4.821222</v>
+        <v>4.8212219999999997</v>
       </c>
       <c r="AG17" s="1">
-        <v>959.319000</v>
+        <v>959.31899999999996</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.700600</v>
+        <v>-74.700599999999994</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>17367.226784</v>
+        <v>17367.226783999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>4.824230</v>
+        <v>4.82423</v>
       </c>
       <c r="AL17" s="1">
-        <v>966.461000</v>
+        <v>966.46100000000001</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.719600</v>
+        <v>-79.7196</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>17378.114466</v>
+        <v>17378.114465999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>4.827254</v>
+        <v>4.8272539999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>974.559000</v>
+        <v>974.55899999999997</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.613200</v>
+        <v>-91.613200000000006</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>17389.141027</v>
+        <v>17389.141027000001</v>
       </c>
       <c r="AU17" s="1">
         <v>4.830317</v>
       </c>
       <c r="AV17" s="1">
-        <v>984.460000</v>
+        <v>984.46</v>
       </c>
       <c r="AW17" s="1">
-        <v>-109.596000</v>
+        <v>-109.596</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>17400.172582</v>
+        <v>17400.172581999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>4.833381</v>
+        <v>4.8333810000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>992.766000</v>
+        <v>992.76599999999996</v>
       </c>
       <c r="BB17" s="1">
-        <v>-125.464000</v>
+        <v>-125.464</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>17411.160925</v>
       </c>
       <c r="BE17" s="1">
-        <v>4.836434</v>
+        <v>4.8364339999999997</v>
       </c>
       <c r="BF17" s="1">
-        <v>1031.580000</v>
+        <v>1031.58</v>
       </c>
       <c r="BG17" s="1">
-        <v>-198.407000</v>
+        <v>-198.40700000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>17422.535671</v>
+        <v>17422.535671000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>4.839593</v>
+        <v>4.8395929999999998</v>
       </c>
       <c r="BK17" s="1">
-        <v>1098.570000</v>
+        <v>1098.57</v>
       </c>
       <c r="BL17" s="1">
-        <v>-316.843000</v>
+        <v>-316.84300000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>17433.315721</v>
+        <v>17433.315720999999</v>
       </c>
       <c r="BO17" s="1">
-        <v>4.842588</v>
+        <v>4.8425880000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1207.520000</v>
+        <v>1207.52</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-503.917000</v>
+        <v>-503.91699999999997</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>17443.904811</v>
@@ -4546,407 +4962,407 @@
         <v>4.845529</v>
       </c>
       <c r="BU17" s="1">
-        <v>1330.300000</v>
+        <v>1330.3</v>
       </c>
       <c r="BV17" s="1">
-        <v>-709.290000</v>
+        <v>-709.29</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>17454.649149</v>
+        <v>17454.649149000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>4.848514</v>
+        <v>4.8485139999999998</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1468.130000</v>
+        <v>1468.13</v>
       </c>
       <c r="CA17" s="1">
-        <v>-928.959000</v>
+        <v>-928.95899999999995</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>17467.756461</v>
+        <v>17467.756461000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>4.852155</v>
+        <v>4.8521549999999998</v>
       </c>
       <c r="CE17" s="1">
-        <v>1831.330000</v>
+        <v>1831.33</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1449.700000</v>
+        <v>-1449.7</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>17294.095650</v>
+        <v>17294.095649999999</v>
       </c>
       <c r="B18" s="1">
-        <v>4.803915</v>
+        <v>4.8039149999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>894.873000</v>
+        <v>894.87300000000005</v>
       </c>
       <c r="D18" s="1">
-        <v>-199.416000</v>
+        <v>-199.416</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>17304.217508</v>
+        <v>17304.217508000002</v>
       </c>
       <c r="G18" s="1">
-        <v>4.806727</v>
+        <v>4.8067270000000004</v>
       </c>
       <c r="H18" s="1">
-        <v>913.018000</v>
+        <v>913.01800000000003</v>
       </c>
       <c r="I18" s="1">
-        <v>-168.439000</v>
+        <v>-168.43899999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>17314.382023</v>
+        <v>17314.382022999998</v>
       </c>
       <c r="L18" s="1">
-        <v>4.809551</v>
+        <v>4.8095509999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>934.907000</v>
+        <v>934.90700000000004</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.198000</v>
+        <v>-119.19799999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>17324.913609</v>
+        <v>17324.913608999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>4.812476</v>
+        <v>4.8124760000000002</v>
       </c>
       <c r="R18" s="1">
-        <v>941.509000</v>
+        <v>941.50900000000001</v>
       </c>
       <c r="S18" s="1">
-        <v>-102.951000</v>
+        <v>-102.95099999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>17335.701097</v>
+        <v>17335.701097000001</v>
       </c>
       <c r="V18" s="1">
-        <v>4.815473</v>
+        <v>4.8154729999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>947.832000</v>
+        <v>947.83199999999999</v>
       </c>
       <c r="X18" s="1">
-        <v>-87.987900</v>
+        <v>-87.987899999999996</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>17346.537660</v>
+        <v>17346.537660000002</v>
       </c>
       <c r="AA18" s="1">
-        <v>4.818483</v>
+        <v>4.8184829999999996</v>
       </c>
       <c r="AB18" s="1">
-        <v>954.754000</v>
+        <v>954.75400000000002</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.637500</v>
+        <v>-76.637500000000003</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>17357.062766</v>
+        <v>17357.062765999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>4.821406</v>
+        <v>4.8214059999999996</v>
       </c>
       <c r="AG18" s="1">
-        <v>959.343000</v>
+        <v>959.34299999999996</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.655600</v>
+        <v>-74.655600000000007</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>17367.612175</v>
+        <v>17367.612174999998</v>
       </c>
       <c r="AK18" s="1">
-        <v>4.824337</v>
+        <v>4.8243369999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>966.466000</v>
+        <v>966.46600000000001</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.753600</v>
+        <v>-79.753600000000006</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>17378.473106</v>
+        <v>17378.473106000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>4.827354</v>
+        <v>4.8273539999999997</v>
       </c>
       <c r="AQ18" s="1">
-        <v>974.567000</v>
+        <v>974.56700000000001</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.613300</v>
+        <v>-91.613299999999995</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>17389.507075</v>
+        <v>17389.507075000001</v>
       </c>
       <c r="AU18" s="1">
         <v>4.830419</v>
       </c>
       <c r="AV18" s="1">
-        <v>984.480000</v>
+        <v>984.48</v>
       </c>
       <c r="AW18" s="1">
-        <v>-109.605000</v>
+        <v>-109.605</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>17400.550996</v>
+        <v>17400.550996000002</v>
       </c>
       <c r="AZ18" s="1">
-        <v>4.833486</v>
+        <v>4.8334859999999997</v>
       </c>
       <c r="BA18" s="1">
-        <v>992.762000</v>
+        <v>992.76199999999994</v>
       </c>
       <c r="BB18" s="1">
-        <v>-125.476000</v>
+        <v>-125.476</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>17411.580534</v>
+        <v>17411.580534000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>4.836550</v>
+        <v>4.8365499999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1031.580000</v>
+        <v>1031.58</v>
       </c>
       <c r="BG18" s="1">
-        <v>-198.394000</v>
+        <v>-198.39400000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>17422.959286</v>
+        <v>17422.959286000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>4.839711</v>
+        <v>4.8397110000000003</v>
       </c>
       <c r="BK18" s="1">
-        <v>1098.570000</v>
+        <v>1098.57</v>
       </c>
       <c r="BL18" s="1">
-        <v>-316.842000</v>
+        <v>-316.84199999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>17433.704617</v>
+        <v>17433.704616999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>4.842696</v>
+        <v>4.8426960000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1207.550000</v>
+        <v>1207.55</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-503.910000</v>
+        <v>-503.91</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>17444.302108</v>
       </c>
       <c r="BT18" s="1">
-        <v>4.845639</v>
+        <v>4.8456390000000003</v>
       </c>
       <c r="BU18" s="1">
-        <v>1330.330000</v>
+        <v>1330.33</v>
       </c>
       <c r="BV18" s="1">
-        <v>-709.278000</v>
+        <v>-709.27800000000002</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>17455.066813</v>
+        <v>17455.066813000001</v>
       </c>
       <c r="BY18" s="1">
-        <v>4.848630</v>
+        <v>4.84863</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1468.110000</v>
+        <v>1468.11</v>
       </c>
       <c r="CA18" s="1">
-        <v>-928.915000</v>
+        <v>-928.91499999999996</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>17468.299051</v>
+        <v>17468.299051000002</v>
       </c>
       <c r="CD18" s="1">
-        <v>4.852305</v>
+        <v>4.8523050000000003</v>
       </c>
       <c r="CE18" s="1">
-        <v>1830.700000</v>
+        <v>1830.7</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1451.220000</v>
+        <v>-1451.22</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>17294.443351</v>
+        <v>17294.443351000002</v>
       </c>
       <c r="B19" s="1">
-        <v>4.804012</v>
+        <v>4.8040120000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>895.368000</v>
+        <v>895.36800000000005</v>
       </c>
       <c r="D19" s="1">
-        <v>-199.547000</v>
+        <v>-199.547</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>17304.562724</v>
+        <v>17304.562723999999</v>
       </c>
       <c r="G19" s="1">
-        <v>4.806823</v>
+        <v>4.8068229999999996</v>
       </c>
       <c r="H19" s="1">
-        <v>912.533000</v>
+        <v>912.53300000000002</v>
       </c>
       <c r="I19" s="1">
-        <v>-168.498000</v>
+        <v>-168.49799999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>17314.728230</v>
+        <v>17314.728230000001</v>
       </c>
       <c r="L19" s="1">
         <v>4.809647</v>
       </c>
       <c r="M19" s="1">
-        <v>934.903000</v>
+        <v>934.90300000000002</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.248000</v>
+        <v>-119.248</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>17325.259784</v>
+        <v>17325.259784000002</v>
       </c>
       <c r="Q19" s="1">
-        <v>4.812572</v>
+        <v>4.8125720000000003</v>
       </c>
       <c r="R19" s="1">
-        <v>941.494000</v>
+        <v>941.49400000000003</v>
       </c>
       <c r="S19" s="1">
-        <v>-102.920000</v>
+        <v>-102.92</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>17336.364218</v>
+        <v>17336.364217999999</v>
       </c>
       <c r="V19" s="1">
-        <v>4.815657</v>
+        <v>4.8156569999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>947.794000</v>
+        <v>947.79399999999998</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.043300</v>
+        <v>-88.043300000000002</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>17346.927516</v>
       </c>
       <c r="AA19" s="1">
-        <v>4.818591</v>
+        <v>4.8185909999999996</v>
       </c>
       <c r="AB19" s="1">
-        <v>954.727000</v>
+        <v>954.72699999999998</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.622800</v>
+        <v>-76.622799999999998</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>17357.433773</v>
+        <v>17357.433773000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>4.821509</v>
+        <v>4.8215089999999998</v>
       </c>
       <c r="AG19" s="1">
-        <v>959.303000</v>
+        <v>959.303</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.677500</v>
+        <v>-74.677499999999995</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>17367.960369</v>
@@ -4955,512 +5371,512 @@
         <v>4.824433</v>
       </c>
       <c r="AL19" s="1">
-        <v>966.450000</v>
+        <v>966.45</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.738200</v>
+        <v>-79.738200000000006</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>17378.849073</v>
+        <v>17378.849073000001</v>
       </c>
       <c r="AP19" s="1">
         <v>4.827458</v>
       </c>
       <c r="AQ19" s="1">
-        <v>974.547000</v>
+        <v>974.54700000000003</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.623200</v>
+        <v>-91.623199999999997</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>17389.871634</v>
+        <v>17389.871633999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>4.830520</v>
+        <v>4.8305199999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>984.451000</v>
+        <v>984.45100000000002</v>
       </c>
       <c r="AW19" s="1">
-        <v>-109.635000</v>
+        <v>-109.63500000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>17400.972132</v>
+        <v>17400.972131999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>4.833603</v>
+        <v>4.8336030000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>992.768000</v>
+        <v>992.76800000000003</v>
       </c>
       <c r="BB19" s="1">
-        <v>-125.476000</v>
+        <v>-125.476</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>17411.882740</v>
+        <v>17411.882740000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>4.836634</v>
+        <v>4.8366340000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1031.580000</v>
+        <v>1031.58</v>
       </c>
       <c r="BG19" s="1">
-        <v>-198.377000</v>
+        <v>-198.37700000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>17423.310918</v>
+        <v>17423.310917999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>4.839809</v>
+        <v>4.8398089999999998</v>
       </c>
       <c r="BK19" s="1">
-        <v>1098.540000</v>
+        <v>1098.54</v>
       </c>
       <c r="BL19" s="1">
-        <v>-316.853000</v>
+        <v>-316.85300000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>17434.113784</v>
+        <v>17434.113784000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>4.842809</v>
+        <v>4.8428089999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1207.540000</v>
+        <v>1207.54</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-503.917000</v>
+        <v>-503.91699999999997</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>17444.732634</v>
       </c>
       <c r="BT19" s="1">
-        <v>4.845759</v>
+        <v>4.8457590000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1330.420000</v>
+        <v>1330.42</v>
       </c>
       <c r="BV19" s="1">
-        <v>-709.247000</v>
+        <v>-709.24699999999996</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>17455.519628</v>
+        <v>17455.519627999998</v>
       </c>
       <c r="BY19" s="1">
-        <v>4.848755</v>
+        <v>4.8487549999999997</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1468.010000</v>
+        <v>1468.01</v>
       </c>
       <c r="CA19" s="1">
-        <v>-928.951000</v>
+        <v>-928.95100000000002</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>17468.849643</v>
+        <v>17468.849643000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>4.852458</v>
+        <v>4.8524580000000004</v>
       </c>
       <c r="CE19" s="1">
-        <v>1831.900000</v>
+        <v>1831.9</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1450.400000</v>
+        <v>-1450.4</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>17294.787072</v>
+        <v>17294.787071999999</v>
       </c>
       <c r="B20" s="1">
-        <v>4.804108</v>
+        <v>4.8041080000000003</v>
       </c>
       <c r="C20" s="1">
-        <v>895.143000</v>
+        <v>895.14300000000003</v>
       </c>
       <c r="D20" s="1">
-        <v>-199.456000</v>
+        <v>-199.45599999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>17304.913890</v>
+        <v>17304.91389</v>
       </c>
       <c r="G20" s="1">
         <v>4.806921</v>
       </c>
       <c r="H20" s="1">
-        <v>912.696000</v>
+        <v>912.69600000000003</v>
       </c>
       <c r="I20" s="1">
-        <v>-168.243000</v>
+        <v>-168.24299999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>17315.379015</v>
+        <v>17315.379014999999</v>
       </c>
       <c r="L20" s="1">
-        <v>4.809828</v>
+        <v>4.8098280000000004</v>
       </c>
       <c r="M20" s="1">
-        <v>935.214000</v>
+        <v>935.21400000000006</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.248000</v>
+        <v>-119.248</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>17325.932359</v>
+        <v>17325.932358999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>4.812759</v>
+        <v>4.8127589999999998</v>
       </c>
       <c r="R20" s="1">
-        <v>941.526000</v>
+        <v>941.52599999999995</v>
       </c>
       <c r="S20" s="1">
-        <v>-102.894000</v>
+        <v>-102.89400000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>17336.732250</v>
+        <v>17336.732250000001</v>
       </c>
       <c r="V20" s="1">
-        <v>4.815759</v>
+        <v>4.8157589999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>947.843000</v>
+        <v>947.84299999999996</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.072500</v>
+        <v>-88.072500000000005</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>17347.277725</v>
       </c>
       <c r="AA20" s="1">
-        <v>4.818688</v>
+        <v>4.8186879999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>954.657000</v>
+        <v>954.65700000000004</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.612900</v>
+        <v>-76.612899999999996</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>17357.774525</v>
+        <v>17357.774525000001</v>
       </c>
       <c r="AF20" s="1">
-        <v>4.821604</v>
+        <v>4.8216039999999998</v>
       </c>
       <c r="AG20" s="1">
-        <v>959.329000</v>
+        <v>959.32899999999995</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.645700</v>
+        <v>-74.645700000000005</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>17368.309056</v>
+        <v>17368.309055999998</v>
       </c>
       <c r="AK20" s="1">
-        <v>4.824530</v>
+        <v>4.8245300000000002</v>
       </c>
       <c r="AL20" s="1">
-        <v>966.460000</v>
+        <v>966.46</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.752600</v>
+        <v>-79.752600000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>17379.262732</v>
+        <v>17379.262731999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>4.827573</v>
+        <v>4.8275730000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>974.558000</v>
+        <v>974.55799999999999</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.633800</v>
+        <v>-91.633799999999994</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>17390.298729</v>
+        <v>17390.298728999998</v>
       </c>
       <c r="AU20" s="1">
-        <v>4.830639</v>
+        <v>4.8306389999999997</v>
       </c>
       <c r="AV20" s="1">
-        <v>984.473000</v>
+        <v>984.47299999999996</v>
       </c>
       <c r="AW20" s="1">
-        <v>-109.622000</v>
+        <v>-109.622</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>17401.266809</v>
+        <v>17401.266809000001</v>
       </c>
       <c r="AZ20" s="1">
         <v>4.833685</v>
       </c>
       <c r="BA20" s="1">
-        <v>992.767000</v>
+        <v>992.76700000000005</v>
       </c>
       <c r="BB20" s="1">
-        <v>-125.456000</v>
+        <v>-125.456</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>17412.243221</v>
+        <v>17412.243221000001</v>
       </c>
       <c r="BE20" s="1">
-        <v>4.836734</v>
+        <v>4.8367339999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1031.560000</v>
+        <v>1031.56</v>
       </c>
       <c r="BG20" s="1">
-        <v>-198.413000</v>
+        <v>-198.41300000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>17423.686886</v>
       </c>
       <c r="BJ20" s="1">
-        <v>4.839913</v>
+        <v>4.8399130000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1098.600000</v>
+        <v>1098.5999999999999</v>
       </c>
       <c r="BL20" s="1">
-        <v>-316.862000</v>
+        <v>-316.86200000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>17434.522983</v>
+        <v>17434.522982999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>4.842923</v>
+        <v>4.8429229999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1207.550000</v>
+        <v>1207.55</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-503.903000</v>
+        <v>-503.90300000000002</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>17445.157737</v>
+        <v>17445.157737000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>4.845877</v>
+        <v>4.8458769999999998</v>
       </c>
       <c r="BU20" s="1">
-        <v>1330.500000</v>
+        <v>1330.5</v>
       </c>
       <c r="BV20" s="1">
-        <v>-709.314000</v>
+        <v>-709.31399999999996</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>17455.969499</v>
+        <v>17455.969498999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>4.848880</v>
+        <v>4.8488800000000003</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1468.080000</v>
+        <v>1468.08</v>
       </c>
       <c r="CA20" s="1">
-        <v>-928.881000</v>
+        <v>-928.88099999999997</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>17469.376872</v>
+        <v>17469.376872000001</v>
       </c>
       <c r="CD20" s="1">
-        <v>4.852605</v>
+        <v>4.8526049999999996</v>
       </c>
       <c r="CE20" s="1">
-        <v>1830.570000</v>
+        <v>1830.57</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1450.050000</v>
+        <v>-1450.05</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>17295.429423</v>
+        <v>17295.429423000001</v>
       </c>
       <c r="B21" s="1">
-        <v>4.804286</v>
+        <v>4.8042860000000003</v>
       </c>
       <c r="C21" s="1">
-        <v>895.155000</v>
+        <v>895.15499999999997</v>
       </c>
       <c r="D21" s="1">
-        <v>-199.688000</v>
+        <v>-199.68799999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>17305.551783</v>
+        <v>17305.551782999999</v>
       </c>
       <c r="G21" s="1">
-        <v>4.807098</v>
+        <v>4.8070979999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>912.621000</v>
+        <v>912.62099999999998</v>
       </c>
       <c r="I21" s="1">
-        <v>-168.292000</v>
+        <v>-168.292</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>17315.766884</v>
+        <v>17315.766884000001</v>
       </c>
       <c r="L21" s="1">
-        <v>4.809935</v>
+        <v>4.8099350000000003</v>
       </c>
       <c r="M21" s="1">
-        <v>935.060000</v>
+        <v>935.06</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.128000</v>
+        <v>-119.128</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>17326.313325</v>
+        <v>17326.313324999999</v>
       </c>
       <c r="Q21" s="1">
-        <v>4.812865</v>
+        <v>4.8128650000000004</v>
       </c>
       <c r="R21" s="1">
-        <v>941.539000</v>
+        <v>941.53899999999999</v>
       </c>
       <c r="S21" s="1">
-        <v>-102.914000</v>
+        <v>-102.914</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>17337.077496</v>
+        <v>17337.077496000002</v>
       </c>
       <c r="V21" s="1">
         <v>4.815855</v>
       </c>
       <c r="W21" s="1">
-        <v>947.892000</v>
+        <v>947.89200000000005</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.128200</v>
+        <v>-88.128200000000007</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>17347.627371</v>
+        <v>17347.627370999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>4.818785</v>
+        <v>4.8187850000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>954.685000</v>
+        <v>954.68499999999995</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.720500</v>
+        <v>-76.720500000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>17358.118780</v>
+        <v>17358.118780000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>4.821700</v>
+        <v>4.8216999999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>959.312000</v>
+        <v>959.31200000000001</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.701600</v>
+        <v>-74.701599999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>17368.738094</v>
@@ -5469,165 +5885,165 @@
         <v>4.824649</v>
       </c>
       <c r="AL21" s="1">
-        <v>966.472000</v>
+        <v>966.47199999999998</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.731600</v>
+        <v>-79.7316</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>17379.556336</v>
+        <v>17379.556336000001</v>
       </c>
       <c r="AP21" s="1">
         <v>4.827655</v>
       </c>
       <c r="AQ21" s="1">
-        <v>974.559000</v>
+        <v>974.55899999999997</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.639100</v>
+        <v>-91.639099999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>17390.599266</v>
+        <v>17390.599266000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>4.830722</v>
+        <v>4.8307219999999997</v>
       </c>
       <c r="AV21" s="1">
-        <v>984.454000</v>
+        <v>984.45399999999995</v>
       </c>
       <c r="AW21" s="1">
-        <v>-109.618000</v>
+        <v>-109.61799999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>17401.626324</v>
+        <v>17401.626324000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>4.833785</v>
+        <v>4.8337849999999998</v>
       </c>
       <c r="BA21" s="1">
-        <v>992.748000</v>
+        <v>992.74800000000005</v>
       </c>
       <c r="BB21" s="1">
-        <v>-125.467000</v>
+        <v>-125.467</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>17412.607749</v>
+        <v>17412.607748999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>4.836835</v>
+        <v>4.8368349999999998</v>
       </c>
       <c r="BF21" s="1">
-        <v>1031.590000</v>
+        <v>1031.5899999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-198.414000</v>
+        <v>-198.41399999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>17424.064907</v>
       </c>
       <c r="BJ21" s="1">
-        <v>4.840018</v>
+        <v>4.8400179999999997</v>
       </c>
       <c r="BK21" s="1">
-        <v>1098.550000</v>
+        <v>1098.55</v>
       </c>
       <c r="BL21" s="1">
-        <v>-316.844000</v>
+        <v>-316.84399999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>17434.946072</v>
+        <v>17434.946071999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>4.843041</v>
+        <v>4.8430410000000004</v>
       </c>
       <c r="BP21" s="1">
-        <v>1207.530000</v>
+        <v>1207.53</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-503.914000</v>
+        <v>-503.91399999999999</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>17445.575376</v>
+        <v>17445.575376000001</v>
       </c>
       <c r="BT21" s="1">
         <v>4.845993</v>
       </c>
       <c r="BU21" s="1">
-        <v>1330.520000</v>
+        <v>1330.52</v>
       </c>
       <c r="BV21" s="1">
-        <v>-709.310000</v>
+        <v>-709.31</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>17456.426314</v>
       </c>
       <c r="BY21" s="1">
-        <v>4.849007</v>
+        <v>4.8490070000000003</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1468.180000</v>
+        <v>1468.18</v>
       </c>
       <c r="CA21" s="1">
-        <v>-928.842000</v>
+        <v>-928.84199999999998</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>17469.918985</v>
       </c>
       <c r="CD21" s="1">
-        <v>4.852755</v>
+        <v>4.8527550000000002</v>
       </c>
       <c r="CE21" s="1">
-        <v>1831.400000</v>
+        <v>1831.4</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1451.520000</v>
+        <v>-1451.52</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>17295.813295</v>
       </c>
       <c r="B22" s="1">
-        <v>4.804393</v>
+        <v>4.8043930000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>895.106000</v>
+        <v>895.10599999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>-199.620000</v>
+        <v>-199.62</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>17305.946097</v>
@@ -5636,58 +6052,58 @@
         <v>4.807207</v>
       </c>
       <c r="H22" s="1">
-        <v>912.393000</v>
+        <v>912.39300000000003</v>
       </c>
       <c r="I22" s="1">
-        <v>-168.862000</v>
+        <v>-168.86199999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>17316.111572</v>
+        <v>17316.111572000002</v>
       </c>
       <c r="L22" s="1">
-        <v>4.810031</v>
+        <v>4.8100310000000004</v>
       </c>
       <c r="M22" s="1">
-        <v>935.012000</v>
+        <v>935.01199999999994</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.334000</v>
+        <v>-119.334</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>17326.658503</v>
+        <v>17326.658502999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>4.812961</v>
+        <v>4.8129609999999996</v>
       </c>
       <c r="R22" s="1">
-        <v>941.506000</v>
+        <v>941.50599999999997</v>
       </c>
       <c r="S22" s="1">
-        <v>-102.956000</v>
+        <v>-102.956</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>17337.418743</v>
+        <v>17337.418742999998</v>
       </c>
       <c r="V22" s="1">
-        <v>4.815950</v>
+        <v>4.81595</v>
       </c>
       <c r="W22" s="1">
-        <v>947.805000</v>
+        <v>947.80499999999995</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.050100</v>
+        <v>-88.0501</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>17348.058426</v>
@@ -5696,148 +6112,148 @@
         <v>4.818905</v>
       </c>
       <c r="AB22" s="1">
-        <v>954.777000</v>
+        <v>954.77700000000004</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.770200</v>
+        <v>-76.770200000000003</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>17358.537373</v>
+        <v>17358.537372999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>4.821816</v>
+        <v>4.8218160000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>959.313000</v>
+        <v>959.31299999999999</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.696200</v>
+        <v>-74.696200000000005</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>17369.011918</v>
       </c>
       <c r="AK22" s="1">
-        <v>4.824726</v>
+        <v>4.8247260000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>966.461000</v>
+        <v>966.46100000000001</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.753000</v>
+        <v>-79.753</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>17379.912960</v>
+        <v>17379.912960000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>4.827754</v>
+        <v>4.8277539999999997</v>
       </c>
       <c r="AQ22" s="1">
-        <v>974.576000</v>
+        <v>974.57600000000002</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.622000</v>
+        <v>-91.622</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>17390.961377</v>
       </c>
       <c r="AU22" s="1">
-        <v>4.830823</v>
+        <v>4.8308229999999996</v>
       </c>
       <c r="AV22" s="1">
-        <v>984.482000</v>
+        <v>984.48199999999997</v>
       </c>
       <c r="AW22" s="1">
-        <v>-109.624000</v>
+        <v>-109.624</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>17401.986455</v>
+        <v>17401.986454999998</v>
       </c>
       <c r="AZ22" s="1">
-        <v>4.833885</v>
+        <v>4.8338850000000004</v>
       </c>
       <c r="BA22" s="1">
-        <v>992.760000</v>
+        <v>992.76</v>
       </c>
       <c r="BB22" s="1">
-        <v>-125.483000</v>
+        <v>-125.483</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>17413.337376</v>
+        <v>17413.337375999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>4.837038</v>
+        <v>4.8370379999999997</v>
       </c>
       <c r="BF22" s="1">
-        <v>1031.580000</v>
+        <v>1031.58</v>
       </c>
       <c r="BG22" s="1">
-        <v>-198.390000</v>
+        <v>-198.39</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>17424.810357</v>
+        <v>17424.810356999998</v>
       </c>
       <c r="BJ22" s="1">
-        <v>4.840225</v>
+        <v>4.8402250000000002</v>
       </c>
       <c r="BK22" s="1">
-        <v>1098.560000</v>
+        <v>1098.56</v>
       </c>
       <c r="BL22" s="1">
-        <v>-316.856000</v>
+        <v>-316.85599999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>17435.341879</v>
       </c>
       <c r="BO22" s="1">
-        <v>4.843151</v>
+        <v>4.8431509999999998</v>
       </c>
       <c r="BP22" s="1">
-        <v>1207.550000</v>
+        <v>1207.55</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-503.903000</v>
+        <v>-503.90300000000002</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>17446.005403</v>
+        <v>17446.005402999999</v>
       </c>
       <c r="BT22" s="1">
-        <v>4.846113</v>
+        <v>4.8461129999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1330.580000</v>
+        <v>1330.58</v>
       </c>
       <c r="BV22" s="1">
-        <v>-709.264000</v>
+        <v>-709.26400000000001</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>17456.875226</v>
@@ -5846,180 +6262,180 @@
         <v>4.849132</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1468.120000</v>
+        <v>1468.12</v>
       </c>
       <c r="CA22" s="1">
-        <v>-928.984000</v>
+        <v>-928.98400000000004</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>17470.773592</v>
+        <v>17470.773592000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>4.852993</v>
+        <v>4.8529929999999997</v>
       </c>
       <c r="CE22" s="1">
-        <v>1830.030000</v>
+        <v>1830.03</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1450.380000</v>
+        <v>-1450.38</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>17296.160527</v>
       </c>
       <c r="B23" s="1">
-        <v>4.804489</v>
+        <v>4.8044890000000002</v>
       </c>
       <c r="C23" s="1">
-        <v>895.135000</v>
+        <v>895.13499999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-199.487000</v>
+        <v>-199.48699999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>17306.289297</v>
+        <v>17306.289296999999</v>
       </c>
       <c r="G23" s="1">
-        <v>4.807303</v>
+        <v>4.8073030000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>912.550000</v>
+        <v>912.55</v>
       </c>
       <c r="I23" s="1">
-        <v>-168.592000</v>
+        <v>-168.59200000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>17316.456293</v>
+        <v>17316.456292999999</v>
       </c>
       <c r="L23" s="1">
-        <v>4.810127</v>
+        <v>4.8101269999999996</v>
       </c>
       <c r="M23" s="1">
-        <v>935.046000</v>
+        <v>935.04600000000005</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.084000</v>
+        <v>-119.084</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>17326.995782</v>
+        <v>17326.995782000002</v>
       </c>
       <c r="Q23" s="1">
-        <v>4.813054</v>
+        <v>4.8130540000000002</v>
       </c>
       <c r="R23" s="1">
-        <v>941.480000</v>
+        <v>941.48</v>
       </c>
       <c r="S23" s="1">
-        <v>-102.943000</v>
+        <v>-102.943</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>17337.831416</v>
+        <v>17337.831416000001</v>
       </c>
       <c r="V23" s="1">
-        <v>4.816064</v>
+        <v>4.8160639999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>947.775000</v>
+        <v>947.77499999999998</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.091400</v>
+        <v>-88.091399999999993</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>17348.329707</v>
+        <v>17348.329707000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>4.818980</v>
+        <v>4.8189799999999998</v>
       </c>
       <c r="AB23" s="1">
-        <v>954.781000</v>
+        <v>954.78099999999995</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.618000</v>
+        <v>-76.617999999999995</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>17358.815132</v>
       </c>
       <c r="AF23" s="1">
-        <v>4.821893</v>
+        <v>4.8218930000000002</v>
       </c>
       <c r="AG23" s="1">
-        <v>959.255000</v>
+        <v>959.255</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.694700</v>
+        <v>-74.694699999999997</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>17369.359613</v>
+        <v>17369.359613000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>4.824822</v>
+        <v>4.8248220000000002</v>
       </c>
       <c r="AL23" s="1">
-        <v>966.456000</v>
+        <v>966.45600000000002</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.740000</v>
+        <v>-79.739999999999995</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>17380.276528</v>
+        <v>17380.276527999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>4.827855</v>
+        <v>4.8278549999999996</v>
       </c>
       <c r="AQ23" s="1">
-        <v>974.563000</v>
+        <v>974.56299999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.609800</v>
+        <v>-91.609800000000007</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>17391.327392</v>
+        <v>17391.327391999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>4.830924</v>
+        <v>4.8309240000000004</v>
       </c>
       <c r="AV23" s="1">
-        <v>984.479000</v>
+        <v>984.47900000000004</v>
       </c>
       <c r="AW23" s="1">
-        <v>-109.606000</v>
+        <v>-109.60599999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>17402.706146</v>
@@ -6028,876 +6444,877 @@
         <v>4.834085</v>
       </c>
       <c r="BA23" s="1">
-        <v>992.755000</v>
+        <v>992.755</v>
       </c>
       <c r="BB23" s="1">
-        <v>-125.477000</v>
+        <v>-125.477</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>17413.715315</v>
+        <v>17413.715315000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>4.837143</v>
+        <v>4.8371430000000002</v>
       </c>
       <c r="BF23" s="1">
-        <v>1031.560000</v>
+        <v>1031.56</v>
       </c>
       <c r="BG23" s="1">
-        <v>-198.405000</v>
+        <v>-198.405</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>17425.187316</v>
       </c>
       <c r="BJ23" s="1">
-        <v>4.840330</v>
+        <v>4.8403299999999998</v>
       </c>
       <c r="BK23" s="1">
-        <v>1098.570000</v>
+        <v>1098.57</v>
       </c>
       <c r="BL23" s="1">
-        <v>-316.866000</v>
+        <v>-316.86599999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>17435.759510</v>
+        <v>17435.75951</v>
       </c>
       <c r="BO23" s="1">
         <v>4.843267</v>
       </c>
       <c r="BP23" s="1">
-        <v>1207.530000</v>
+        <v>1207.53</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-503.883000</v>
+        <v>-503.88299999999998</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>17446.720601</v>
+        <v>17446.720601000001</v>
       </c>
       <c r="BT23" s="1">
         <v>4.846311</v>
       </c>
       <c r="BU23" s="1">
-        <v>1330.540000</v>
+        <v>1330.54</v>
       </c>
       <c r="BV23" s="1">
-        <v>-709.385000</v>
+        <v>-709.38499999999999</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>17457.595913</v>
+        <v>17457.595913000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>4.849332</v>
+        <v>4.8493320000000004</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1468.030000</v>
+        <v>1468.03</v>
       </c>
       <c r="CA23" s="1">
-        <v>-928.982000</v>
+        <v>-928.98199999999997</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>17470.996791</v>
+        <v>17470.996791000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>4.853055</v>
+        <v>4.8530550000000003</v>
       </c>
       <c r="CE23" s="1">
-        <v>1830.090000</v>
+        <v>1830.09</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1450.520000</v>
+        <v>-1450.52</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>17296.501246</v>
       </c>
       <c r="B24" s="1">
-        <v>4.804584</v>
+        <v>4.8045840000000002</v>
       </c>
       <c r="C24" s="1">
-        <v>895.284000</v>
+        <v>895.28399999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-199.480000</v>
+        <v>-199.48</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>17306.633552</v>
+        <v>17306.633551999999</v>
       </c>
       <c r="G24" s="1">
-        <v>4.807398</v>
+        <v>4.8073980000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>912.469000</v>
+        <v>912.46900000000005</v>
       </c>
       <c r="I24" s="1">
-        <v>-168.550000</v>
+        <v>-168.55</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>17316.876900</v>
+        <v>17316.876899999999</v>
       </c>
       <c r="L24" s="1">
         <v>4.810244</v>
       </c>
       <c r="M24" s="1">
-        <v>935.038000</v>
+        <v>935.03800000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.166000</v>
+        <v>-119.166</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>17327.704597</v>
       </c>
       <c r="Q24" s="1">
-        <v>4.813251</v>
+        <v>4.8132510000000002</v>
       </c>
       <c r="R24" s="1">
-        <v>941.482000</v>
+        <v>941.48199999999997</v>
       </c>
       <c r="S24" s="1">
-        <v>-102.917000</v>
+        <v>-102.917</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>17338.132951</v>
       </c>
       <c r="V24" s="1">
-        <v>4.816148</v>
+        <v>4.8161480000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>947.799000</v>
+        <v>947.79899999999998</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.053400</v>
+        <v>-88.053399999999996</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>17348.678393</v>
+        <v>17348.678392999998</v>
       </c>
       <c r="AA24" s="1">
-        <v>4.819077</v>
+        <v>4.8190770000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>954.645000</v>
+        <v>954.64499999999998</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.696000</v>
+        <v>-76.695999999999998</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>17359.160874</v>
+        <v>17359.160874000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>4.821989</v>
+        <v>4.8219890000000003</v>
       </c>
       <c r="AG24" s="1">
-        <v>959.309000</v>
+        <v>959.30899999999997</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.696900</v>
+        <v>-74.696899999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>17369.708269</v>
+        <v>17369.708268999999</v>
       </c>
       <c r="AK24" s="1">
-        <v>4.824919</v>
+        <v>4.8249190000000004</v>
       </c>
       <c r="AL24" s="1">
-        <v>966.475000</v>
+        <v>966.47500000000002</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.734700</v>
+        <v>-79.734700000000004</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>17380.993246</v>
+        <v>17380.993246000002</v>
       </c>
       <c r="AP24" s="1">
-        <v>4.828054</v>
+        <v>4.8280539999999998</v>
       </c>
       <c r="AQ24" s="1">
-        <v>974.539000</v>
+        <v>974.53899999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.634600</v>
+        <v>-91.634600000000006</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>17392.053535</v>
+        <v>17392.053534999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>4.831126</v>
+        <v>4.8311260000000003</v>
       </c>
       <c r="AV24" s="1">
-        <v>984.453000</v>
+        <v>984.45299999999997</v>
       </c>
       <c r="AW24" s="1">
-        <v>-109.619000</v>
+        <v>-109.619</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>17403.066718</v>
+        <v>17403.066717999998</v>
       </c>
       <c r="AZ24" s="1">
-        <v>4.834185</v>
+        <v>4.8341849999999997</v>
       </c>
       <c r="BA24" s="1">
-        <v>992.735000</v>
+        <v>992.73500000000001</v>
       </c>
       <c r="BB24" s="1">
-        <v>-125.458000</v>
+        <v>-125.458</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>17414.075410</v>
+        <v>17414.075410000001</v>
       </c>
       <c r="BE24" s="1">
         <v>4.837243</v>
       </c>
       <c r="BF24" s="1">
-        <v>1031.580000</v>
+        <v>1031.58</v>
       </c>
       <c r="BG24" s="1">
-        <v>-198.404000</v>
+        <v>-198.404</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>17425.563285</v>
       </c>
       <c r="BJ24" s="1">
-        <v>4.840434</v>
+        <v>4.8404340000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1098.560000</v>
+        <v>1098.56</v>
       </c>
       <c r="BL24" s="1">
-        <v>-316.847000</v>
+        <v>-316.84699999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>17436.465813</v>
+        <v>17436.465812999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>4.843463</v>
+        <v>4.8434629999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1207.520000</v>
+        <v>1207.52</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-503.910000</v>
+        <v>-503.91</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>17446.849559</v>
+        <v>17446.849558999998</v>
       </c>
       <c r="BT24" s="1">
-        <v>4.846347</v>
+        <v>4.8463469999999997</v>
       </c>
       <c r="BU24" s="1">
-        <v>1330.600000</v>
+        <v>1330.6</v>
       </c>
       <c r="BV24" s="1">
-        <v>-709.364000</v>
+        <v>-709.36400000000003</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>17457.745674</v>
+        <v>17457.745674000002</v>
       </c>
       <c r="BY24" s="1">
-        <v>4.849374</v>
+        <v>4.8493740000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1468.110000</v>
+        <v>1468.11</v>
       </c>
       <c r="CA24" s="1">
-        <v>-928.881000</v>
+        <v>-928.88099999999997</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>17471.516102</v>
+        <v>17471.516102000001</v>
       </c>
       <c r="CD24" s="1">
         <v>4.853199</v>
       </c>
       <c r="CE24" s="1">
-        <v>1830.920000</v>
+        <v>1830.92</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1451.170000</v>
+        <v>-1451.17</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>17296.921885</v>
       </c>
       <c r="B25" s="1">
-        <v>4.804701</v>
+        <v>4.8047009999999997</v>
       </c>
       <c r="C25" s="1">
-        <v>895.072000</v>
+        <v>895.072</v>
       </c>
       <c r="D25" s="1">
-        <v>-199.452000</v>
+        <v>-199.452</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>17307.066560</v>
+        <v>17307.066559999999</v>
       </c>
       <c r="G25" s="1">
         <v>4.807518</v>
       </c>
       <c r="H25" s="1">
-        <v>912.629000</v>
+        <v>912.62900000000002</v>
       </c>
       <c r="I25" s="1">
-        <v>-168.504000</v>
+        <v>-168.50399999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>17317.148707</v>
       </c>
       <c r="L25" s="1">
-        <v>4.810319</v>
+        <v>4.8103189999999998</v>
       </c>
       <c r="M25" s="1">
-        <v>934.957000</v>
+        <v>934.95699999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.154000</v>
+        <v>-119.154</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>17328.052260</v>
+        <v>17328.05226</v>
       </c>
       <c r="Q25" s="1">
-        <v>4.813348</v>
+        <v>4.8133480000000004</v>
       </c>
       <c r="R25" s="1">
-        <v>941.506000</v>
+        <v>941.50599999999997</v>
       </c>
       <c r="S25" s="1">
-        <v>-102.912000</v>
+        <v>-102.91200000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>17338.476183</v>
+        <v>17338.476182999999</v>
       </c>
       <c r="V25" s="1">
-        <v>4.816243</v>
+        <v>4.8162430000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>947.820000</v>
+        <v>947.82</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.051500</v>
+        <v>-88.051500000000004</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>17349.030089</v>
       </c>
       <c r="AA25" s="1">
-        <v>4.819175</v>
+        <v>4.8191750000000004</v>
       </c>
       <c r="AB25" s="1">
-        <v>954.655000</v>
+        <v>954.65499999999997</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.710100</v>
+        <v>-76.710099999999997</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>17359.505564</v>
+        <v>17359.505563999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>4.822085</v>
+        <v>4.8220850000000004</v>
       </c>
       <c r="AG25" s="1">
-        <v>959.311000</v>
+        <v>959.31100000000004</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.668600</v>
+        <v>-74.668599999999998</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>17370.408620</v>
+        <v>17370.408619999998</v>
       </c>
       <c r="AK25" s="1">
-        <v>4.825114</v>
+        <v>4.8251140000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>966.475000</v>
+        <v>966.47500000000002</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.727100</v>
+        <v>-79.727099999999993</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>17381.352846</v>
+        <v>17381.352846000002</v>
       </c>
       <c r="AP25" s="1">
-        <v>4.828154</v>
+        <v>4.8281539999999996</v>
       </c>
       <c r="AQ25" s="1">
-        <v>974.556000</v>
+        <v>974.55600000000004</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.629400</v>
+        <v>-91.629400000000004</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>17392.447360</v>
+        <v>17392.447359999998</v>
       </c>
       <c r="AU25" s="1">
-        <v>4.831235</v>
+        <v>4.8312350000000004</v>
       </c>
       <c r="AV25" s="1">
-        <v>984.460000</v>
+        <v>984.46</v>
       </c>
       <c r="AW25" s="1">
-        <v>-109.614000</v>
+        <v>-109.614</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>17403.421840</v>
+        <v>17403.421839999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>4.834284</v>
+        <v>4.8342840000000002</v>
       </c>
       <c r="BA25" s="1">
-        <v>992.733000</v>
+        <v>992.73299999999995</v>
       </c>
       <c r="BB25" s="1">
-        <v>-125.468000</v>
+        <v>-125.468</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>17414.738066</v>
+        <v>17414.738066000002</v>
       </c>
       <c r="BE25" s="1">
-        <v>4.837427</v>
+        <v>4.8374269999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1031.560000</v>
+        <v>1031.56</v>
       </c>
       <c r="BG25" s="1">
-        <v>-198.402000</v>
+        <v>-198.40199999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>17426.254674</v>
       </c>
       <c r="BJ25" s="1">
-        <v>4.840626</v>
+        <v>4.8406260000000003</v>
       </c>
       <c r="BK25" s="1">
-        <v>1098.590000</v>
+        <v>1098.5899999999999</v>
       </c>
       <c r="BL25" s="1">
-        <v>-316.863000</v>
+        <v>-316.863</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>17436.597750</v>
+        <v>17436.597750000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>4.843499</v>
+        <v>4.8434990000000004</v>
       </c>
       <c r="BP25" s="1">
-        <v>1207.530000</v>
+        <v>1207.53</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-503.909000</v>
+        <v>-503.90899999999999</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>17447.286038</v>
+        <v>17447.286037999998</v>
       </c>
       <c r="BT25" s="1">
-        <v>4.846468</v>
+        <v>4.8464679999999998</v>
       </c>
       <c r="BU25" s="1">
-        <v>1330.590000</v>
+        <v>1330.59</v>
       </c>
       <c r="BV25" s="1">
-        <v>-709.515000</v>
+        <v>-709.51499999999999</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>17458.172729</v>
+        <v>17458.172729000002</v>
       </c>
       <c r="BY25" s="1">
-        <v>4.849492</v>
+        <v>4.8494919999999997</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1468.010000</v>
+        <v>1468.01</v>
       </c>
       <c r="CA25" s="1">
-        <v>-928.849000</v>
+        <v>-928.84900000000005</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>17472.034918</v>
+        <v>17472.034918000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>4.853343</v>
+        <v>4.8533429999999997</v>
       </c>
       <c r="CE25" s="1">
-        <v>1831.680000</v>
+        <v>1831.68</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1450.420000</v>
+        <v>-1450.42</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>17297.202125</v>
       </c>
       <c r="B26" s="1">
-        <v>4.804778</v>
+        <v>4.8047779999999998</v>
       </c>
       <c r="C26" s="1">
-        <v>895.172000</v>
+        <v>895.17200000000003</v>
       </c>
       <c r="D26" s="1">
-        <v>-199.663000</v>
+        <v>-199.66300000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>17307.325446</v>
+        <v>17307.325445999999</v>
       </c>
       <c r="G26" s="1">
-        <v>4.807590</v>
+        <v>4.8075900000000003</v>
       </c>
       <c r="H26" s="1">
-        <v>912.488000</v>
+        <v>912.48800000000006</v>
       </c>
       <c r="I26" s="1">
-        <v>-168.379000</v>
+        <v>-168.37899999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>17317.491976</v>
+        <v>17317.491976000001</v>
       </c>
       <c r="L26" s="1">
-        <v>4.810414</v>
+        <v>4.8104139999999997</v>
       </c>
       <c r="M26" s="1">
-        <v>935.012000</v>
+        <v>935.01199999999994</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.308000</v>
+        <v>-119.30800000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>17328.398005</v>
+        <v>17328.398004999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>4.813444</v>
+        <v>4.8134439999999996</v>
       </c>
       <c r="R26" s="1">
-        <v>941.550000</v>
+        <v>941.55</v>
       </c>
       <c r="S26" s="1">
-        <v>-102.949000</v>
+        <v>-102.949</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>17338.818934</v>
+        <v>17338.818933999999</v>
       </c>
       <c r="V26" s="1">
-        <v>4.816339</v>
+        <v>4.8163390000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>947.786000</v>
+        <v>947.78599999999994</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.018400</v>
+        <v>-88.0184</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>17349.725447</v>
+        <v>17349.725447000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>4.819368</v>
+        <v>4.8193679999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>954.698000</v>
+        <v>954.69799999999998</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.648600</v>
+        <v>-76.648600000000002</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>17360.190042</v>
+        <v>17360.190041999998</v>
       </c>
       <c r="AF26" s="1">
-        <v>4.822275</v>
+        <v>4.8222750000000003</v>
       </c>
       <c r="AG26" s="1">
-        <v>959.325000</v>
+        <v>959.32500000000005</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.666400</v>
+        <v>-74.666399999999996</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>17370.753341</v>
       </c>
       <c r="AK26" s="1">
-        <v>4.825209</v>
+        <v>4.8252090000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>966.441000</v>
+        <v>966.44100000000003</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.738700</v>
+        <v>-79.738699999999994</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>17381.716413</v>
+        <v>17381.716412999998</v>
       </c>
       <c r="AP26" s="1">
-        <v>4.828255</v>
+        <v>4.8282550000000004</v>
       </c>
       <c r="AQ26" s="1">
-        <v>974.546000</v>
+        <v>974.54600000000005</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.624500</v>
+        <v>-91.624499999999998</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>17392.815925</v>
+        <v>17392.815924999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>4.831338</v>
+        <v>4.8313379999999997</v>
       </c>
       <c r="AV26" s="1">
-        <v>984.489000</v>
+        <v>984.48900000000003</v>
       </c>
       <c r="AW26" s="1">
-        <v>-109.592000</v>
+        <v>-109.592</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>17404.088961</v>
+        <v>17404.088961000001</v>
       </c>
       <c r="AZ26" s="1">
-        <v>4.834469</v>
+        <v>4.8344690000000003</v>
       </c>
       <c r="BA26" s="1">
-        <v>992.767000</v>
+        <v>992.76700000000005</v>
       </c>
       <c r="BB26" s="1">
-        <v>-125.476000</v>
+        <v>-125.476</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>17415.193891</v>
+        <v>17415.193890999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>4.837554</v>
+        <v>4.8375539999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1031.560000</v>
+        <v>1031.56</v>
       </c>
       <c r="BG26" s="1">
-        <v>-198.407000</v>
+        <v>-198.40700000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>17426.688178</v>
       </c>
       <c r="BJ26" s="1">
-        <v>4.840747</v>
+        <v>4.8407470000000004</v>
       </c>
       <c r="BK26" s="1">
-        <v>1098.590000</v>
+        <v>1098.5899999999999</v>
       </c>
       <c r="BL26" s="1">
-        <v>-316.859000</v>
+        <v>-316.85899999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>17437.007444</v>
+        <v>17437.007443999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>4.843613</v>
+        <v>4.8436130000000004</v>
       </c>
       <c r="BP26" s="1">
-        <v>1207.520000</v>
+        <v>1207.52</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-503.926000</v>
+        <v>-503.92599999999999</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>17447.716108</v>
+        <v>17447.716108000001</v>
       </c>
       <c r="BT26" s="1">
-        <v>4.846588</v>
+        <v>4.8465879999999997</v>
       </c>
       <c r="BU26" s="1">
-        <v>1330.600000</v>
+        <v>1330.6</v>
       </c>
       <c r="BV26" s="1">
-        <v>-709.464000</v>
+        <v>-709.46400000000006</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>17458.617671</v>
       </c>
       <c r="BY26" s="1">
-        <v>4.849616</v>
+        <v>4.8496160000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1468.090000</v>
+        <v>1468.09</v>
       </c>
       <c r="CA26" s="1">
-        <v>-928.909000</v>
+        <v>-928.90899999999999</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>17472.551785</v>
       </c>
       <c r="CD26" s="1">
-        <v>4.853487</v>
+        <v>4.8534870000000003</v>
       </c>
       <c r="CE26" s="1">
-        <v>1830.620000</v>
+        <v>1830.62</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1449.720000</v>
+        <v>-1449.72</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>